--- a/testFiles/prudent.xlsx
+++ b/testFiles/prudent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simoneugomaria.brega\Documents\gitProjects\cumba_R_package\testFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://creagov-my.sharepoint.com/personal/simoneugomaria_bregaglio_crea_gov_it/Documents/Desktop/cumba_R_package/testFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EC4604-1FAB-4B97-8D34-A51128201D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{73EC4604-1FAB-4B97-8D34-A51128201D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B491F60-45D4-4D6E-A8E4-C22A0134186E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-390" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testBrix2" sheetId="1" r:id="rId1"/>
@@ -3982,7 +3982,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-GB"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5953,7 +5953,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-GB"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8810,7 +8810,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-GB"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11647,7 +11647,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-GB"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -20092,9 +20092,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -20132,7 +20132,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -20238,7 +20238,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -20380,7 +20380,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -20390,31 +20390,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="107" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScale="107" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE3" sqref="AE3"/>
+      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="5" width="8.77734375" style="6"/>
-    <col min="6" max="6" width="19.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="8.77734375" style="6"/>
-    <col min="11" max="11" width="8.77734375" style="2"/>
-    <col min="12" max="12" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="8.77734375" style="2"/>
-    <col min="17" max="18" width="8.77734375" style="10"/>
+    <col min="1" max="5" width="8.7890625" style="6"/>
+    <col min="6" max="6" width="19.5234375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="8.7890625" style="6"/>
+    <col min="11" max="11" width="8.7890625" style="2"/>
+    <col min="12" max="12" width="11.7890625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="8.7890625" style="2"/>
+    <col min="17" max="18" width="8.7890625" style="10"/>
     <col min="19" max="19" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="8.77734375" style="3"/>
-    <col min="22" max="22" width="16.77734375" style="10" customWidth="1"/>
-    <col min="23" max="23" width="16.77734375" style="5" customWidth="1"/>
-    <col min="24" max="24" width="16.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.77734375" style="13"/>
-    <col min="27" max="27" width="17.21875" customWidth="1"/>
-    <col min="28" max="28" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="20" max="21" width="8.7890625" style="3"/>
+    <col min="22" max="22" width="16.7890625" style="10" customWidth="1"/>
+    <col min="23" max="23" width="16.7890625" style="5" customWidth="1"/>
+    <col min="24" max="24" width="16.5234375" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.7890625" style="13"/>
+    <col min="27" max="27" width="17.20703125" customWidth="1"/>
+    <col min="28" max="28" width="31.68359375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="K1" s="6"/>
       <c r="M1" s="2" t="s">
         <v>24</v>
@@ -20427,7 +20427,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -20513,7 +20513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7">
         <v>2006</v>
       </c>
@@ -20603,7 +20603,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7">
         <v>2006</v>
       </c>
@@ -20698,7 +20698,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7">
         <v>2006</v>
       </c>
@@ -20808,7 +20808,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7">
         <v>2006</v>
       </c>
@@ -20911,7 +20911,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7">
         <v>2006</v>
       </c>
@@ -21014,7 +21014,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7">
         <v>2006</v>
       </c>
@@ -21117,7 +21117,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7">
         <v>2006</v>
       </c>
@@ -21220,7 +21220,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7">
         <v>2006</v>
       </c>
@@ -21323,7 +21323,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7">
         <v>2006</v>
       </c>
@@ -21426,7 +21426,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7">
         <v>2006</v>
       </c>
@@ -21529,7 +21529,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7">
         <v>2006</v>
       </c>
@@ -21623,7 +21623,7 @@
         <v>4.1930429902553952</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7">
         <v>2006</v>
       </c>
@@ -21717,7 +21717,7 @@
         <v>4.1989735965030617</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7">
         <v>2006</v>
       </c>
@@ -21811,7 +21811,7 @@
         <v>4.1501125578598312</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7">
         <v>2006</v>
       </c>
@@ -21905,7 +21905,7 @@
         <v>4.1721960864071868</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7">
         <v>2006</v>
       </c>
@@ -21999,7 +21999,7 @@
         <v>4.179720070748016</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7">
         <v>2006</v>
       </c>
@@ -22093,7 +22093,7 @@
         <v>4.2441110062613037</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7">
         <v>2006</v>
       </c>
@@ -22187,7 +22187,7 @@
         <v>4.331462536907468</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7">
         <v>2006</v>
       </c>
@@ -22281,7 +22281,7 @@
         <v>4.219400562619116</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7">
         <v>2006</v>
       </c>
@@ -22375,7 +22375,7 @@
         <v>4.3346400463668182</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7">
         <v>2006</v>
       </c>
@@ -22469,7 +22469,7 @@
         <v>4.525285832830467</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7">
         <v>2006</v>
       </c>
@@ -22563,7 +22563,7 @@
         <v>4.4880845576011961</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7">
         <v>2006</v>
       </c>
@@ -22657,7 +22657,7 @@
         <v>4.4015983886881811</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7">
         <v>2006</v>
       </c>
@@ -22751,7 +22751,7 @@
         <v>4.4448884282427592</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7">
         <v>2006</v>
       </c>
@@ -22845,7 +22845,7 @@
         <v>4.4838612864220266</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7">
         <v>2006</v>
       </c>
@@ -22939,7 +22939,7 @@
         <v>4.4209372766485453</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7">
         <v>2006</v>
       </c>
@@ -23033,7 +23033,7 @@
         <v>4.4390255647173751</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7">
         <v>2006</v>
       </c>
@@ -23127,7 +23127,7 @@
         <v>4.5321090164202227</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7">
         <v>2006</v>
       </c>
@@ -23221,7 +23221,7 @@
         <v>4.5530022425748617</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7">
         <v>2006</v>
       </c>
@@ -23315,7 +23315,7 @@
         <v>4.6074870741486658</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7">
         <v>2006</v>
       </c>
@@ -23409,7 +23409,7 @@
         <v>4.6584136757277337</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7">
         <v>2006</v>
       </c>
@@ -23503,7 +23503,7 @@
         <v>4.7180197169059577</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7">
         <v>2006</v>
       </c>
@@ -23597,7 +23597,7 @@
         <v>4.678490296555692</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7">
         <v>2006</v>
       </c>
@@ -23691,7 +23691,7 @@
         <v>4.7621217299242957</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7">
         <v>2006</v>
       </c>
@@ -23785,7 +23785,7 @@
         <v>4.8147870543100728</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7">
         <v>2006</v>
       </c>
@@ -23879,7 +23879,7 @@
         <v>4.8419716264997472</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="7">
         <v>2006</v>
       </c>
@@ -23973,7 +23973,7 @@
         <v>4.8649054338515976</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7">
         <v>2006</v>
       </c>
@@ -24067,7 +24067,7 @@
         <v>4.8899763561697771</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7">
         <v>2006</v>
       </c>
@@ -24161,7 +24161,7 @@
         <v>4.8644991870204404</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="7">
         <v>2006</v>
       </c>
@@ -24255,7 +24255,7 @@
         <v>4.9406429119440345</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="7">
         <v>2006</v>
       </c>
@@ -24349,7 +24349,7 @@
         <v>5.0206531356692521</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7">
         <v>2006</v>
       </c>
@@ -24443,7 +24443,7 @@
         <v>4.959507030720971</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7">
         <v>2006</v>
       </c>
@@ -24537,7 +24537,7 @@
         <v>4.9877870390578485</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7">
         <v>2006</v>
       </c>
@@ -24631,7 +24631,7 @@
         <v>5.0546194968802194</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="7">
         <v>2006</v>
       </c>
@@ -24725,7 +24725,7 @@
         <v>5.0709327432040894</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7">
         <v>2006</v>
       </c>
@@ -24819,7 +24819,7 @@
         <v>5.1105180855704155</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="7">
         <v>2006</v>
       </c>
@@ -24913,7 +24913,7 @@
         <v>5.0024490746822865</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="7">
         <v>2006</v>
       </c>
@@ -25007,7 +25007,7 @@
         <v>5.0723916333907226</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7">
         <v>2006</v>
       </c>
@@ -25101,7 +25101,7 @@
         <v>5.1377565512394714</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7">
         <v>2006</v>
       </c>
@@ -25195,7 +25195,7 @@
         <v>5.1914043581294456</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="7">
         <v>2006</v>
       </c>
@@ -25289,7 +25289,7 @@
         <v>5.2551277992181333</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="7">
         <v>2006</v>
       </c>
@@ -25383,7 +25383,7 @@
         <v>5.2867311997264164</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="7">
         <v>2006</v>
       </c>
@@ -25477,7 +25477,7 @@
         <v>5.3161443797216954</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="7">
         <v>2006</v>
       </c>
@@ -25571,7 +25571,7 @@
         <v>5.3437572363209362</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="7">
         <v>2006</v>
       </c>
@@ -25665,7 +25665,7 @@
         <v>5.354307464861038</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7">
         <v>2006</v>
       </c>
@@ -25759,7 +25759,7 @@
         <v>5.3323654583380335</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="7">
         <v>2006</v>
       </c>
@@ -25853,7 +25853,7 @@
         <v>5.3830350289044429</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="7">
         <v>2006</v>
       </c>
@@ -25947,7 +25947,7 @@
         <v>5.4068066410770781</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="7">
         <v>2006</v>
       </c>
@@ -26041,7 +26041,7 @@
         <v>5.4465922017666601</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="7">
         <v>2006</v>
       </c>
@@ -26135,7 +26135,7 @@
         <v>5.4763554491243305</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="7">
         <v>2006</v>
       </c>
@@ -26229,133 +26229,133 @@
         <v>5.5099778710288145</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="H63">
         <v>0.89166878701378705</v>
       </c>
       <c r="W63" s="3"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="H64">
         <v>0.83807711402594698</v>
       </c>
       <c r="W64" s="3"/>
     </row>
-    <row r="65" spans="8:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="8:23" x14ac:dyDescent="0.55000000000000004">
       <c r="H65">
         <v>0.78808616956480304</v>
       </c>
       <c r="W65" s="3"/>
     </row>
-    <row r="66" spans="8:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="8:23" x14ac:dyDescent="0.55000000000000004">
       <c r="H66">
         <v>1.2199840333479099</v>
       </c>
       <c r="W66" s="3"/>
     </row>
-    <row r="67" spans="8:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="8:23" x14ac:dyDescent="0.55000000000000004">
       <c r="H67">
         <v>2.5341477475509899</v>
       </c>
       <c r="W67" s="3"/>
     </row>
-    <row r="68" spans="8:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="8:23" x14ac:dyDescent="0.55000000000000004">
       <c r="H68">
         <v>1.66512904116496</v>
       </c>
       <c r="W68" s="3"/>
     </row>
-    <row r="69" spans="8:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="8:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W69" s="3"/>
     </row>
-    <row r="70" spans="8:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="8:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W70" s="3"/>
     </row>
-    <row r="71" spans="8:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="8:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W71" s="3"/>
     </row>
-    <row r="72" spans="8:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="8:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W72" s="3"/>
     </row>
-    <row r="73" spans="8:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="8:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W73" s="3"/>
     </row>
-    <row r="74" spans="8:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="8:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W74" s="3"/>
     </row>
-    <row r="75" spans="8:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="8:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W75" s="3"/>
     </row>
-    <row r="76" spans="8:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="8:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W76" s="3"/>
     </row>
-    <row r="77" spans="8:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="8:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W77" s="3"/>
     </row>
-    <row r="78" spans="8:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="8:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W78" s="3"/>
     </row>
-    <row r="79" spans="8:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="8:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W79" s="3"/>
     </row>
-    <row r="80" spans="8:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="8:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W80" s="3"/>
     </row>
-    <row r="81" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="23:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W81" s="3"/>
     </row>
-    <row r="82" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="23:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W82" s="3"/>
     </row>
-    <row r="83" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="23:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W83" s="3"/>
     </row>
-    <row r="84" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="23:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W84" s="3"/>
     </row>
-    <row r="85" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="23:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W85" s="3"/>
     </row>
-    <row r="86" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="23:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W86" s="3"/>
     </row>
-    <row r="87" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="23:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W87" s="3"/>
     </row>
-    <row r="88" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="23:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W88" s="3"/>
     </row>
-    <row r="89" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="23:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W89" s="3"/>
     </row>
-    <row r="90" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="23:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W90" s="3"/>
     </row>
-    <row r="91" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="23:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W91" s="3"/>
     </row>
-    <row r="92" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="92" spans="23:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W92" s="3"/>
     </row>
-    <row r="93" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="93" spans="23:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W93" s="3"/>
     </row>
-    <row r="94" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="94" spans="23:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W94" s="3"/>
     </row>
-    <row r="95" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="95" spans="23:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W95" s="3"/>
     </row>
-    <row r="96" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="96" spans="23:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W96" s="3"/>
     </row>
-    <row r="97" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="97" spans="23:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W97" s="3"/>
     </row>
-    <row r="98" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="98" spans="23:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W98" s="3"/>
     </row>
-    <row r="99" spans="23:23" x14ac:dyDescent="0.3">
+    <row r="99" spans="23:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W99" s="3"/>
     </row>
   </sheetData>
@@ -26369,30 +26369,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B208EE4C-01E6-4EEF-9E20-2EDEC8DE01B3}">
   <dimension ref="A1:AI99"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG9" sqref="AG9:AI13"/>
+      <selection pane="bottomLeft" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="5" width="8.77734375" style="6"/>
-    <col min="6" max="6" width="19.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="8.77734375" style="6"/>
-    <col min="11" max="11" width="8.77734375" style="2"/>
-    <col min="12" max="12" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="8.77734375" style="2"/>
-    <col min="16" max="17" width="8.77734375" style="10"/>
-    <col min="18" max="20" width="8.77734375" style="3"/>
-    <col min="21" max="21" width="16.77734375" style="10" customWidth="1"/>
-    <col min="22" max="22" width="16.77734375" style="5" customWidth="1"/>
-    <col min="23" max="23" width="16.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="31" width="8.77734375" style="13"/>
-    <col min="33" max="33" width="17.21875" customWidth="1"/>
-    <col min="34" max="34" width="42.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="8.7890625" style="6"/>
+    <col min="6" max="6" width="19.5234375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="8.7890625" style="6"/>
+    <col min="11" max="11" width="8.7890625" style="2"/>
+    <col min="12" max="12" width="11.7890625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="8.7890625" style="2"/>
+    <col min="16" max="17" width="8.7890625" style="10"/>
+    <col min="18" max="20" width="8.7890625" style="3"/>
+    <col min="21" max="21" width="16.7890625" style="10" customWidth="1"/>
+    <col min="22" max="22" width="16.7890625" style="5" customWidth="1"/>
+    <col min="23" max="23" width="16.5234375" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="31" width="8.7890625" style="13"/>
+    <col min="33" max="33" width="17.20703125" customWidth="1"/>
+    <col min="34" max="34" width="42.89453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="K1" s="6"/>
       <c r="M1" s="2" t="s">
         <v>24</v>
@@ -26405,7 +26405,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -26497,7 +26497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7">
         <v>2006</v>
       </c>
@@ -26557,11 +26557,11 @@
         <v>0.10014957345703013</v>
       </c>
       <c r="R3" s="4">
-        <f t="shared" ref="R3:R62" si="2">1/(1+EXP(-$AI$10*(F3-$AI$11)))</f>
+        <f>1/(1+EXP(-$AI$10*(F3-$AI$11)))</f>
         <v>7.9486420625168776E-3</v>
       </c>
       <c r="S3" s="4">
-        <f t="shared" ref="S3:S62" si="3">Q3-$AI$12*R3*(1-K3)</f>
+        <f t="shared" ref="S3:S62" si="2">Q3-$AI$12*R3*(1-K3)</f>
         <v>0.10014522686544991</v>
       </c>
       <c r="T3" s="4">
@@ -26573,7 +26573,7 @@
         <v>2.2783163841919314</v>
       </c>
       <c r="V3" s="3">
-        <f t="shared" ref="V3:V62" si="4">J3/(1-T3)</f>
+        <f t="shared" ref="V3:V62" si="3">J3/(1-T3)</f>
         <v>2.2783022342408374</v>
       </c>
       <c r="W3" s="12">
@@ -26581,7 +26581,7 @@
         <v>0</v>
       </c>
       <c r="X3" s="13">
-        <f t="shared" ref="X3:X34" si="5">(100*O3)/($AI$4*V3)</f>
+        <f t="shared" ref="X3:X34" si="4">(100*O3)/($AI$4*V3)</f>
         <v>0</v>
       </c>
       <c r="Y3" s="13">
@@ -26609,7 +26609,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7">
         <v>2006</v>
       </c>
@@ -26627,7 +26627,7 @@
         <v>30.439999999999998</v>
       </c>
       <c r="F4" s="7">
-        <f t="shared" ref="F4:F62" si="6">E4/$E$62*100</f>
+        <f t="shared" ref="F4:F62" si="5">E4/$E$62*100</f>
         <v>3.4151595386617615</v>
       </c>
       <c r="G4" s="7">
@@ -26646,11 +26646,11 @@
         <v>0.688137903260437</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" ref="L4:L62" si="7">$AI$3*H4</f>
+        <f t="shared" ref="L4:L62" si="6">$AI$3*H4</f>
         <v>1.0110284450395011</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" ref="M4:M62" si="8">IF($AI$5*(H4*1/J4)^$AI$6&gt;1,1,$AI$5*(H4*1/J4)^$AI$6)</f>
+        <f t="shared" ref="M4:M62" si="7">IF($AI$5*(H4*1/J4)^$AI$6&gt;1,1,$AI$5*(H4*1/J4)^$AI$6)</f>
         <v>0.9075257241644753</v>
       </c>
       <c r="N4" s="2">
@@ -26670,11 +26670,11 @@
         <v>8.3554379755462538E-2</v>
       </c>
       <c r="R4" s="4">
+        <f t="shared" ref="R3:R62" si="8">1/(1+EXP(-$AI$10*(F4-$AI$11)))</f>
+        <v>9.391782171142924E-3</v>
+      </c>
+      <c r="S4" s="4">
         <f t="shared" si="2"/>
-        <v>9.391782171142924E-3</v>
-      </c>
-      <c r="S4" s="4">
-        <f t="shared" si="3"/>
         <v>8.3548521873702514E-2</v>
       </c>
       <c r="T4" s="4">
@@ -26686,7 +26686,7 @@
         <v>11.096820388494658</v>
       </c>
       <c r="V4" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11.096636653204641</v>
       </c>
       <c r="W4" s="12">
@@ -26694,7 +26694,7 @@
         <v>2.2207717262680911</v>
       </c>
       <c r="X4" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.2208084972420301</v>
       </c>
       <c r="Y4" s="13">
@@ -26727,7 +26727,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7">
         <v>2006</v>
       </c>
@@ -26745,7 +26745,7 @@
         <v>45.4</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5.0935690885428366</v>
       </c>
       <c r="G5" s="7">
@@ -26764,11 +26764,11 @@
         <v>0.64202279782479799</v>
       </c>
       <c r="L5" s="2">
+        <f t="shared" si="6"/>
+        <v>2.7604620387312937</v>
+      </c>
+      <c r="M5" s="2">
         <f t="shared" si="7"/>
-        <v>2.7604620387312937</v>
-      </c>
-      <c r="M5" s="2">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N5" s="2">
@@ -26788,11 +26788,11 @@
         <v>7.1738133515357627E-2</v>
       </c>
       <c r="R5" s="4">
+        <f t="shared" si="8"/>
+        <v>1.1089083567717635E-2</v>
+      </c>
+      <c r="S5" s="4">
         <f t="shared" si="2"/>
-        <v>1.1089083567717635E-2</v>
-      </c>
-      <c r="S5" s="4">
-        <f t="shared" si="3"/>
         <v>7.1730194237137113E-2</v>
       </c>
       <c r="T5" s="4">
@@ -26804,7 +26804,7 @@
         <v>14.716370740797014</v>
       </c>
       <c r="V5" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14.715880432471566</v>
       </c>
       <c r="W5" s="12">
@@ -26812,7 +26812,7 @@
         <v>30.156968797292226</v>
       </c>
       <c r="X5" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30.15797357664875</v>
       </c>
       <c r="Y5" s="13">
@@ -26845,7 +26845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7">
         <v>2006</v>
       </c>
@@ -26863,7 +26863,7 @@
         <v>61.06</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.8505138446349259</v>
       </c>
       <c r="G6" s="7">
@@ -26882,11 +26882,11 @@
         <v>0.77924059087070296</v>
       </c>
       <c r="L6" s="2">
+        <f t="shared" si="6"/>
+        <v>4.3247613944572389</v>
+      </c>
+      <c r="M6" s="2">
         <f t="shared" si="7"/>
-        <v>4.3247613944572389</v>
-      </c>
-      <c r="M6" s="2">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N6" s="2">
@@ -26906,11 +26906,11 @@
         <v>6.4440443836492001E-2</v>
       </c>
       <c r="R6" s="4">
+        <f t="shared" si="8"/>
+        <v>1.3190910320991001E-2</v>
+      </c>
+      <c r="S6" s="4">
         <f t="shared" si="2"/>
-        <v>1.3190910320991001E-2</v>
-      </c>
-      <c r="S6" s="4">
-        <f t="shared" si="3"/>
         <v>6.4434619801355328E-2</v>
       </c>
       <c r="T6" s="4">
@@ -26922,7 +26922,7 @@
         <v>20.299538119061214</v>
       </c>
       <c r="V6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20.298524803063099</v>
       </c>
       <c r="W6" s="12">
@@ -26930,7 +26930,7 @@
         <v>60.859068901804442</v>
       </c>
       <c r="X6" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60.862107027419327</v>
       </c>
       <c r="Y6" s="13">
@@ -26963,7 +26963,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7">
         <v>2006</v>
       </c>
@@ -26981,7 +26981,7 @@
         <v>76.95</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8.6332630256249203</v>
       </c>
       <c r="G7" s="7">
@@ -27000,11 +27000,11 @@
         <v>0.72015314716240397</v>
       </c>
       <c r="L7" s="2">
+        <f t="shared" si="6"/>
+        <v>4.4809441772875127</v>
+      </c>
+      <c r="M7" s="2">
         <f t="shared" si="7"/>
-        <v>4.4809441772875127</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N7" s="2">
@@ -27024,11 +27024,11 @@
         <v>5.5846226523492581E-2</v>
       </c>
       <c r="R7" s="4">
+        <f t="shared" si="8"/>
+        <v>1.5724687810044286E-2</v>
+      </c>
+      <c r="S7" s="4">
         <f t="shared" si="2"/>
-        <v>1.5724687810044286E-2</v>
-      </c>
-      <c r="S7" s="4">
-        <f t="shared" si="3"/>
         <v>5.583742551470159E-2</v>
       </c>
       <c r="T7" s="4">
@@ -27040,7 +27040,7 @@
         <v>37.616037802852453</v>
       </c>
       <c r="V7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>37.613132734279368</v>
       </c>
       <c r="W7" s="12">
@@ -27048,7 +27048,7 @@
         <v>54.875721695327641</v>
       </c>
       <c r="X7" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54.879960048342497</v>
       </c>
       <c r="Y7" s="13">
@@ -27081,7 +27081,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7">
         <v>2006</v>
       </c>
@@ -27099,7 +27099,7 @@
         <v>92.92</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10.424987658753313</v>
       </c>
       <c r="G8" s="7">
@@ -27118,11 +27118,11 @@
         <v>0.71811892574707503</v>
       </c>
       <c r="L8" s="2">
+        <f t="shared" si="6"/>
+        <v>5.3860639116529514</v>
+      </c>
+      <c r="M8" s="2">
         <f t="shared" si="7"/>
-        <v>5.3860639116529514</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N8" s="2">
@@ -27142,11 +27142,11 @@
         <v>4.7862607170632399E-2</v>
       </c>
       <c r="R8" s="4">
+        <f t="shared" si="8"/>
+        <v>1.8752433947274164E-2</v>
+      </c>
+      <c r="S8" s="4">
         <f t="shared" si="2"/>
-        <v>1.8752433947274164E-2</v>
-      </c>
-      <c r="S8" s="4">
-        <f t="shared" si="3"/>
         <v>4.7852035258180568E-2</v>
       </c>
       <c r="T8" s="4">
@@ -27158,7 +27158,7 @@
         <v>62.553704671183709</v>
       </c>
       <c r="V8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>62.546502897745562</v>
       </c>
       <c r="W8" s="12">
@@ -27166,7 +27166,7 @@
         <v>49.693430140328296</v>
       </c>
       <c r="X8" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>49.699151976220868</v>
       </c>
       <c r="Y8" s="13">
@@ -27199,7 +27199,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7">
         <v>2006</v>
       </c>
@@ -27217,7 +27217,7 @@
         <v>108.56</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12.179688551810802</v>
       </c>
       <c r="G9" s="7">
@@ -27236,11 +27236,11 @@
         <v>0.67346122827221</v>
       </c>
       <c r="L9" s="2">
+        <f t="shared" si="6"/>
+        <v>3.0780732346883637</v>
+      </c>
+      <c r="M9" s="2">
         <f t="shared" si="7"/>
-        <v>3.0780732346883637</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" si="8"/>
         <v>0.55567750226139334</v>
       </c>
       <c r="N9" s="2">
@@ -27260,11 +27260,11 @@
         <v>4.0019261798198258E-2</v>
       </c>
       <c r="R9" s="4">
+        <f t="shared" si="8"/>
+        <v>2.2269171125257635E-2</v>
+      </c>
+      <c r="S9" s="4">
         <f t="shared" si="2"/>
-        <v>2.2269171125257635E-2</v>
-      </c>
-      <c r="S9" s="4">
-        <f t="shared" si="3"/>
         <v>4.0004718302624982E-2</v>
       </c>
       <c r="T9" s="4">
@@ -27276,7 +27276,7 @@
         <v>88.778020542580975</v>
       </c>
       <c r="V9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>88.76274669241819</v>
       </c>
       <c r="W9" s="12">
@@ -27284,7 +27284,7 @@
         <v>41.779243814067769</v>
       </c>
       <c r="X9" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>41.78643297769451</v>
       </c>
       <c r="Y9" s="13">
@@ -27317,7 +27317,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7">
         <v>2006</v>
       </c>
@@ -27335,7 +27335,7 @@
         <v>123.29</v>
       </c>
       <c r="F10" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>13.832293676793975</v>
       </c>
       <c r="G10" s="7">
@@ -27354,11 +27354,11 @@
         <v>0.62278840606191299</v>
       </c>
       <c r="L10" s="2">
+        <f t="shared" si="6"/>
+        <v>3.8971812733703532</v>
+      </c>
+      <c r="M10" s="2">
         <f t="shared" si="7"/>
-        <v>3.8971812733703532</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" si="8"/>
         <v>0.63352106493555338</v>
       </c>
       <c r="N10" s="2">
@@ -27378,11 +27378,11 @@
         <v>3.2377063967304331E-2</v>
       </c>
       <c r="R10" s="4">
+        <f t="shared" si="8"/>
+        <v>2.6166238697431999E-2</v>
+      </c>
+      <c r="S10" s="4">
         <f t="shared" si="2"/>
-        <v>2.6166238697431999E-2</v>
-      </c>
-      <c r="S10" s="4">
-        <f t="shared" si="3"/>
         <v>3.2357323550091487E-2</v>
       </c>
       <c r="T10" s="4">
@@ -27394,7 +27394,7 @@
         <v>112.9436601664342</v>
       </c>
       <c r="V10" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>112.91482919313844</v>
       </c>
       <c r="W10" s="12">
@@ -27402,7 +27402,7 @@
         <v>39.720162365530321</v>
       </c>
       <c r="X10" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>39.730304265833816</v>
       </c>
       <c r="Y10" s="13">
@@ -27435,7 +27435,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7">
         <v>2006</v>
       </c>
@@ -27453,7 +27453,7 @@
         <v>138.20000000000002</v>
       </c>
       <c r="F11" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>15.505093569088549</v>
       </c>
       <c r="G11" s="7">
@@ -27472,11 +27472,11 @@
         <v>0.57212133557182598</v>
       </c>
       <c r="L11" s="2">
+        <f t="shared" si="6"/>
+        <v>4.002669612706514</v>
+      </c>
+      <c r="M11" s="2">
         <f t="shared" si="7"/>
-        <v>4.002669612706514</v>
-      </c>
-      <c r="M11" s="2">
-        <f t="shared" si="8"/>
         <v>0.59041857631456263</v>
       </c>
       <c r="N11" s="2">
@@ -27496,11 +27496,11 @@
         <v>2.8259180833199393E-2</v>
       </c>
       <c r="R11" s="4">
+        <f t="shared" si="8"/>
+        <v>3.0784053099556986E-2</v>
+      </c>
+      <c r="S11" s="4">
         <f t="shared" si="2"/>
-        <v>3.0784053099556986E-2</v>
-      </c>
-      <c r="S11" s="4">
-        <f t="shared" si="3"/>
         <v>2.8232837154147546E-2</v>
       </c>
       <c r="T11" s="4">
@@ -27512,7 +27512,7 @@
         <v>134.68911043224298</v>
       </c>
       <c r="V11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>134.63834720033745</v>
       </c>
       <c r="W11" s="12">
@@ -27520,7 +27520,7 @@
         <v>39.339343959688755</v>
       </c>
       <c r="X11" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>39.354176229112454</v>
       </c>
       <c r="Y11" s="13">
@@ -27553,7 +27553,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7">
         <v>2006</v>
       </c>
@@ -27571,7 +27571,7 @@
         <v>150.63000000000002</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.899654445092679</v>
       </c>
       <c r="G12" s="7">
@@ -27590,11 +27590,11 @@
         <v>0.52467345175996505</v>
       </c>
       <c r="L12" s="2">
+        <f t="shared" si="6"/>
+        <v>3.6918469038080501</v>
+      </c>
+      <c r="M12" s="2">
         <f t="shared" si="7"/>
-        <v>3.6918469038080501</v>
-      </c>
-      <c r="M12" s="2">
-        <f t="shared" si="8"/>
         <v>0.52895139904812716</v>
       </c>
       <c r="N12" s="2">
@@ -27614,11 +27614,11 @@
         <v>2.0542927931512134E-2</v>
       </c>
       <c r="R12" s="4">
+        <f t="shared" si="8"/>
+        <v>3.5228544732512412E-2</v>
+      </c>
+      <c r="S12" s="4">
         <f t="shared" si="2"/>
-        <v>3.5228544732512412E-2</v>
-      </c>
-      <c r="S12" s="4">
-        <f t="shared" si="3"/>
         <v>2.0509437806377685E-2</v>
       </c>
       <c r="T12" s="4">
@@ -27630,7 +27630,7 @@
         <v>145.53079573963396</v>
       </c>
       <c r="V12" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>145.45245378816617</v>
       </c>
       <c r="W12" s="12">
@@ -27638,7 +27638,7 @@
         <v>41.583305928056369</v>
       </c>
       <c r="X12" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>41.605703056809048</v>
       </c>
       <c r="Y12" s="13">
@@ -27671,7 +27671,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7">
         <v>2006</v>
       </c>
@@ -27689,7 +27689,7 @@
         <v>160.83000000000001</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>18.044024592738868</v>
       </c>
       <c r="G13" s="7">
@@ -27708,11 +27708,11 @@
         <v>0.675962305493646</v>
       </c>
       <c r="L13" s="2">
+        <f t="shared" si="6"/>
+        <v>3.89918229405707</v>
+      </c>
+      <c r="M13" s="2">
         <f t="shared" si="7"/>
-        <v>3.89918229405707</v>
-      </c>
-      <c r="M13" s="2">
-        <f t="shared" si="8"/>
         <v>0.56975530186358647</v>
       </c>
       <c r="N13" s="2">
@@ -27732,11 +27732,11 @@
         <v>1.5050802797025531E-2</v>
       </c>
       <c r="R13" s="4">
+        <f t="shared" si="8"/>
+        <v>3.933173165832933E-2</v>
+      </c>
+      <c r="S13" s="4">
         <f t="shared" si="2"/>
-        <v>3.933173165832933E-2</v>
-      </c>
-      <c r="S13" s="4">
-        <f t="shared" si="3"/>
         <v>1.5025312869730516E-2</v>
       </c>
       <c r="T13" s="4">
@@ -27748,7 +27748,7 @@
         <v>154.65121876714716</v>
       </c>
       <c r="V13" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>154.54635893366077</v>
       </c>
       <c r="W13" s="12">
@@ -27756,7 +27756,7 @@
         <v>44.256827512798523</v>
       </c>
       <c r="X13" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44.286855807192829</v>
       </c>
       <c r="Y13" s="13">
@@ -27789,7 +27789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7">
         <v>2006</v>
       </c>
@@ -27807,7 +27807,7 @@
         <v>175.70000000000002</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>19.712336758964241</v>
       </c>
       <c r="G14" s="7">
@@ -27826,11 +27826,11 @@
         <v>0.62315829024916702</v>
       </c>
       <c r="L14" s="2">
+        <f t="shared" si="6"/>
+        <v>3.7813510059745208</v>
+      </c>
+      <c r="M14" s="2">
         <f t="shared" si="7"/>
-        <v>3.7813510059745208</v>
-      </c>
-      <c r="M14" s="2">
-        <f t="shared" si="8"/>
         <v>0.46563576304081344</v>
       </c>
       <c r="N14" s="2">
@@ -27850,11 +27850,11 @@
         <v>1.9366157040460186E-2</v>
       </c>
       <c r="R14" s="4">
+        <f t="shared" si="8"/>
+        <v>4.6143095545008526E-2</v>
+      </c>
+      <c r="S14" s="4">
         <f t="shared" si="2"/>
-        <v>4.6143095545008526E-2</v>
-      </c>
-      <c r="S14" s="4">
-        <f t="shared" si="3"/>
         <v>1.9331379754423433E-2</v>
       </c>
       <c r="T14" s="4">
@@ -27866,7 +27866,7 @@
         <v>189.22708229518892</v>
       </c>
       <c r="V14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>189.05777652615325</v>
       </c>
       <c r="W14" s="12">
@@ -27874,7 +27874,7 @@
         <v>40.342155209767789</v>
       </c>
       <c r="X14" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>40.378282576427054</v>
       </c>
       <c r="Y14" s="13">
@@ -27898,7 +27898,7 @@
         <v>-261.81640851881684</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7">
         <v>2006</v>
       </c>
@@ -27916,7 +27916,7 @@
         <v>191.70000000000002</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>21.507427186644538</v>
       </c>
       <c r="G15" s="7">
@@ -27935,11 +27935,11 @@
         <v>0.56814494635313895</v>
       </c>
       <c r="L15" s="2">
+        <f t="shared" si="6"/>
+        <v>4.2334476352094503</v>
+      </c>
+      <c r="M15" s="2">
         <f t="shared" si="7"/>
-        <v>4.2334476352094503</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" si="8"/>
         <v>0.47878994773941413</v>
       </c>
       <c r="N15" s="2">
@@ -27959,11 +27959,11 @@
         <v>1.7860030988025022E-2</v>
       </c>
       <c r="R15" s="4">
+        <f t="shared" si="8"/>
+        <v>5.4719721988004504E-2</v>
+      </c>
+      <c r="S15" s="4">
         <f t="shared" si="2"/>
-        <v>5.4719721988004504E-2</v>
-      </c>
-      <c r="S15" s="4">
-        <f t="shared" si="3"/>
         <v>1.7812769011075681E-2</v>
       </c>
       <c r="T15" s="4">
@@ -27975,7 +27975,7 @@
         <v>225.82241234420835</v>
       </c>
       <c r="V15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>225.55012085426605</v>
       </c>
       <c r="W15" s="12">
@@ -27983,7 +27983,7 @@
         <v>37.763277574547701</v>
       </c>
       <c r="X15" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>37.808866639527729</v>
       </c>
       <c r="Y15" s="13">
@@ -28007,7 +28007,7 @@
         <v>-275.00230813200022</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7">
         <v>2006</v>
       </c>
@@ -28025,7 +28025,7 @@
         <v>207.50000000000003</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>23.280078983978829</v>
       </c>
       <c r="G16" s="7">
@@ -28044,11 +28044,11 @@
         <v>0.50675150670588998</v>
       </c>
       <c r="L16" s="2">
+        <f t="shared" si="6"/>
+        <v>3.9064042758848836</v>
+      </c>
+      <c r="M16" s="2">
         <f t="shared" si="7"/>
-        <v>3.9064042758848836</v>
-      </c>
-      <c r="M16" s="2">
-        <f t="shared" si="8"/>
         <v>0.35493224818543417</v>
       </c>
       <c r="N16" s="2">
@@ -28068,11 +28068,11 @@
         <v>1.5043711140569904E-2</v>
       </c>
       <c r="R16" s="4">
+        <f t="shared" si="8"/>
+        <v>6.4646407183470062E-2</v>
+      </c>
+      <c r="S16" s="4">
         <f t="shared" si="2"/>
-        <v>6.4646407183470062E-2</v>
-      </c>
-      <c r="S16" s="4">
-        <f t="shared" si="3"/>
         <v>1.4979937654689655E-2</v>
       </c>
       <c r="T16" s="4">
@@ -28084,7 +28084,7 @@
         <v>280.47139099251075</v>
       </c>
       <c r="V16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>280.01124510517241</v>
       </c>
       <c r="W16" s="12">
@@ -28092,7 +28092,7 @@
         <v>33.42010386429137</v>
       </c>
       <c r="X16" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>33.475023527756306</v>
       </c>
       <c r="Y16" s="13">
@@ -28116,7 +28116,7 @@
         <v>-283.03047217051136</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7">
         <v>2006</v>
       </c>
@@ -28134,7 +28134,7 @@
         <v>222.75000000000003</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>24.99102454786161</v>
       </c>
       <c r="G17" s="7">
@@ -28153,11 +28153,11 @@
         <v>0.451467441401742</v>
       </c>
       <c r="L17" s="2">
+        <f t="shared" si="6"/>
+        <v>3.8995165192033578</v>
+      </c>
+      <c r="M17" s="2">
         <f t="shared" si="7"/>
-        <v>3.8995165192033578</v>
-      </c>
-      <c r="M17" s="2">
-        <f t="shared" si="8"/>
         <v>0.30600262505616005</v>
       </c>
       <c r="N17" s="2">
@@ -28177,11 +28177,11 @@
         <v>1.2431187982865133E-2</v>
       </c>
       <c r="R17" s="4">
+        <f t="shared" si="8"/>
+        <v>7.5795282714361728E-2</v>
+      </c>
+      <c r="S17" s="4">
         <f t="shared" si="2"/>
-        <v>7.5795282714361728E-2</v>
-      </c>
-      <c r="S17" s="4">
-        <f t="shared" si="3"/>
         <v>1.2348035622151159E-2</v>
       </c>
       <c r="T17" s="4">
@@ -28193,7 +28193,7 @@
         <v>334.36328508871344</v>
       </c>
       <c r="V17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>333.6180971154854</v>
       </c>
       <c r="W17" s="12">
@@ -28201,7 +28201,7 @@
         <v>30.592418546921355</v>
       </c>
       <c r="X17" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30.660751477809189</v>
       </c>
       <c r="Y17" s="13">
@@ -28225,7 +28225,7 @@
         <v>-289.35632568902213</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7">
         <v>2006</v>
       </c>
@@ -28243,7 +28243,7 @@
         <v>237.38000000000002</v>
       </c>
       <c r="F18" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>26.632410357671777</v>
       </c>
       <c r="G18" s="7">
@@ -28262,11 +28262,11 @@
         <v>0.400840697280611</v>
       </c>
       <c r="L18" s="2">
+        <f t="shared" si="6"/>
+        <v>3.2046964361482453</v>
+      </c>
+      <c r="M18" s="2">
         <f t="shared" si="7"/>
-        <v>3.2046964361482453</v>
-      </c>
-      <c r="M18" s="2">
-        <f t="shared" si="8"/>
         <v>0.20809946576604788</v>
       </c>
       <c r="N18" s="2">
@@ -28286,11 +28286,11 @@
         <v>1.0269989745911534E-2</v>
       </c>
       <c r="R18" s="4">
+        <f t="shared" si="8"/>
+        <v>8.8124011100262523E-2</v>
+      </c>
+      <c r="S18" s="4">
         <f t="shared" si="2"/>
-        <v>8.8124011100262523E-2</v>
-      </c>
-      <c r="S18" s="4">
-        <f t="shared" si="3"/>
         <v>1.0164389103824197E-2</v>
       </c>
       <c r="T18" s="4">
@@ -28302,7 +28302,7 @@
         <v>387.54077170799906</v>
       </c>
       <c r="V18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>386.37708140804352</v>
       </c>
       <c r="W18" s="12">
@@ -28310,7 +28310,7 @@
         <v>28.235627918759882</v>
       </c>
       <c r="X18" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>28.320667968760969</v>
       </c>
       <c r="Y18" s="13">
@@ -28334,7 +28334,7 @@
         <v>-293.09154826230196</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7">
         <v>2006</v>
       </c>
@@ -28352,7 +28352,7 @@
         <v>252.24</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>28.299600592379853</v>
       </c>
       <c r="G19" s="7">
@@ -28371,11 +28371,11 @@
         <v>0.35391114914905097</v>
       </c>
       <c r="L19" s="2">
+        <f t="shared" si="6"/>
+        <v>2.280818185812318</v>
+      </c>
+      <c r="M19" s="2">
         <f t="shared" si="7"/>
-        <v>2.280818185812318</v>
-      </c>
-      <c r="M19" s="2">
-        <f t="shared" si="8"/>
         <v>0.11737134706265968</v>
       </c>
       <c r="N19" s="2">
@@ -28395,11 +28395,11 @@
         <v>9.001606854248001E-3</v>
       </c>
       <c r="R19" s="4">
+        <f t="shared" si="8"/>
+        <v>0.10247335993122395</v>
+      </c>
+      <c r="S19" s="4">
         <f t="shared" si="2"/>
-        <v>0.10247335993122395</v>
-      </c>
-      <c r="S19" s="4">
-        <f t="shared" si="3"/>
         <v>8.8691930635264003E-3</v>
       </c>
       <c r="T19" s="4">
@@ -28411,7 +28411,7 @@
         <v>444.45786296555076</v>
       </c>
       <c r="V19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>442.67248865010805</v>
       </c>
       <c r="W19" s="12">
@@ -28419,7 +28419,7 @@
         <v>25.778739399560756</v>
       </c>
       <c r="X19" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25.882709491193996</v>
       </c>
       <c r="Y19" s="13">
@@ -28443,7 +28443,7 @@
         <v>-294.75290308741205</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7">
         <v>2006</v>
       </c>
@@ -28461,7 +28461,7 @@
         <v>267.52</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>30.013911950814531</v>
       </c>
       <c r="G20" s="7">
@@ -28480,11 +28480,11 @@
         <v>0.52415426128643605</v>
       </c>
       <c r="L20" s="2">
+        <f t="shared" si="6"/>
+        <v>4.0861477510193946</v>
+      </c>
+      <c r="M20" s="2">
         <f t="shared" si="7"/>
-        <v>4.0861477510193946</v>
-      </c>
-      <c r="M20" s="2">
-        <f t="shared" si="8"/>
         <v>0.23101141603972664</v>
       </c>
       <c r="N20" s="2">
@@ -28504,11 +28504,11 @@
         <v>7.9615807772934755E-3</v>
       </c>
       <c r="R20" s="4">
+        <f t="shared" si="8"/>
+        <v>0.11934906597980882</v>
+      </c>
+      <c r="S20" s="4">
         <f t="shared" si="2"/>
-        <v>0.11934906597980882</v>
-      </c>
-      <c r="S20" s="4">
-        <f t="shared" si="3"/>
         <v>7.8479972883616026E-3</v>
       </c>
       <c r="T20" s="4">
@@ -28520,7 +28520,7 @@
         <v>509.97313117955468</v>
       </c>
       <c r="V20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>507.42782489954868</v>
       </c>
       <c r="W20" s="12">
@@ -28528,7 +28528,7 @@
         <v>24.266872645657042</v>
       </c>
       <c r="X20" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24.388597589206057</v>
       </c>
       <c r="Y20" s="13">
@@ -28552,7 +28552,7 @@
         <v>-298.37915359984021</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7">
         <v>2006</v>
       </c>
@@ -28570,7 +28570,7 @@
         <v>283.22999999999996</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>31.776466364493118</v>
       </c>
       <c r="G21" s="7">
@@ -28589,11 +28589,11 @@
         <v>0.46614797971626398</v>
       </c>
       <c r="L21" s="2">
+        <f t="shared" si="6"/>
+        <v>2.4862887816738488</v>
+      </c>
+      <c r="M21" s="2">
         <f t="shared" si="7"/>
-        <v>2.4862887816738488</v>
-      </c>
-      <c r="M21" s="2">
-        <f t="shared" si="8"/>
         <v>0.10829600557672192</v>
       </c>
       <c r="N21" s="2">
@@ -28613,11 +28613,11 @@
         <v>7.0110378321353028E-3</v>
       </c>
       <c r="R21" s="4">
+        <f t="shared" si="8"/>
+        <v>0.13915172754515737</v>
+      </c>
+      <c r="S21" s="4">
         <f t="shared" si="2"/>
-        <v>0.13915172754515737</v>
-      </c>
-      <c r="S21" s="4">
-        <f t="shared" si="3"/>
         <v>6.8624649703833947E-3</v>
       </c>
       <c r="T21" s="4">
@@ -28629,7 +28629,7 @@
         <v>568.53317157106062</v>
       </c>
       <c r="V21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>564.96415378299412</v>
       </c>
       <c r="W21" s="12">
@@ -28637,7 +28637,7 @@
         <v>22.763213178032192</v>
       </c>
       <c r="X21" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22.907014005397876</v>
       </c>
       <c r="Y21" s="13">
@@ -28661,7 +28661,7 @@
         <v>-299.74288488069743</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7">
         <v>2006</v>
       </c>
@@ -28679,7 +28679,7 @@
         <v>298.16999999999996</v>
       </c>
       <c r="F22" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>33.452632051339592</v>
       </c>
       <c r="G22" s="7">
@@ -28698,11 +28698,11 @@
         <v>0.406943804922409</v>
       </c>
       <c r="L22" s="2">
+        <f t="shared" si="6"/>
+        <v>7.4720944473549475E-2</v>
+      </c>
+      <c r="M22" s="2">
         <f t="shared" si="7"/>
-        <v>7.4720944473549475E-2</v>
-      </c>
-      <c r="M22" s="2">
-        <f t="shared" si="8"/>
         <v>8.6623242143394404E-4</v>
       </c>
       <c r="N22" s="2">
@@ -28722,11 +28722,11 @@
         <v>5.7195044718045818E-3</v>
       </c>
       <c r="R22" s="4">
+        <f t="shared" si="8"/>
+        <v>0.16046978544046431</v>
+      </c>
+      <c r="S22" s="4">
         <f t="shared" si="2"/>
-        <v>0.16046978544046431</v>
-      </c>
-      <c r="S22" s="4">
-        <f t="shared" si="3"/>
         <v>5.5291692710481037E-3</v>
       </c>
       <c r="T22" s="4">
@@ -28738,7 +28738,7 @@
         <v>620.15217690780742</v>
       </c>
       <c r="V22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>615.23725915745115</v>
       </c>
       <c r="W22" s="12">
@@ -28746,7 +28746,7 @@
         <v>20.896848743033352</v>
       </c>
       <c r="X22" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21.063786442733623</v>
       </c>
       <c r="Y22" s="13">
@@ -28770,7 +28770,7 @@
         <v>-299.66940914984474</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7">
         <v>2006</v>
       </c>
@@ -28788,7 +28788,7 @@
         <v>313.37999999999994</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>35.159089889153172</v>
       </c>
       <c r="G23" s="7">
@@ -28807,11 +28807,11 @@
         <v>0.356804960393721</v>
       </c>
       <c r="L23" s="2">
+        <f t="shared" si="6"/>
+        <v>0.40147866405987886</v>
+      </c>
+      <c r="M23" s="2">
         <f t="shared" si="7"/>
-        <v>0.40147866405987886</v>
-      </c>
-      <c r="M23" s="2">
-        <f t="shared" si="8"/>
         <v>8.0502218794903276E-3</v>
       </c>
       <c r="N23" s="2">
@@ -28831,11 +28831,11 @@
         <v>5.0082021746034044E-3</v>
       </c>
       <c r="R23" s="4">
+        <f t="shared" si="8"/>
+        <v>0.18481029129553009</v>
+      </c>
+      <c r="S23" s="4">
         <f t="shared" si="2"/>
-        <v>0.18481029129553009</v>
-      </c>
-      <c r="S23" s="4">
-        <f t="shared" si="3"/>
         <v>4.7704640493444516E-3</v>
       </c>
       <c r="T23" s="4">
@@ -28847,7 +28847,7 @@
         <v>671.71170843247023</v>
       </c>
       <c r="V23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>664.98392959333887</v>
       </c>
       <c r="W23" s="12">
@@ -28855,7 +28855,7 @@
         <v>19.43229441032134</v>
       </c>
       <c r="X23" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19.62889491946369</v>
       </c>
       <c r="Y23" s="13">
@@ -28879,7 +28879,7 @@
         <v>-299.64116627381179</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7">
         <v>2006</v>
       </c>
@@ -28897,7 +28897,7 @@
         <v>327.83999999999992</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>36.781402863169234</v>
       </c>
       <c r="G24" s="7">
@@ -28916,11 +28916,11 @@
         <v>0.31788777529890699</v>
       </c>
       <c r="L24" s="2">
+        <f t="shared" si="6"/>
+        <v>1.8180597031300045</v>
+      </c>
+      <c r="M24" s="2">
         <f t="shared" si="7"/>
-        <v>1.8180597031300045</v>
-      </c>
-      <c r="M24" s="2">
-        <f t="shared" si="8"/>
         <v>5.7298006299808503E-2</v>
       </c>
       <c r="N24" s="2">
@@ -28940,11 +28940,11 @@
         <v>4.1044322608225769E-3</v>
       </c>
       <c r="R24" s="4">
+        <f t="shared" si="8"/>
+        <v>0.21050905198159384</v>
+      </c>
+      <c r="S24" s="4">
         <f t="shared" si="2"/>
-        <v>0.21050905198159384</v>
-      </c>
-      <c r="S24" s="4">
-        <f t="shared" si="3"/>
         <v>3.8172506652888109E-3</v>
       </c>
       <c r="T24" s="4">
@@ -28956,7 +28956,7 @@
         <v>741.81271075298037</v>
       </c>
       <c r="V24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>732.49673934912687</v>
       </c>
       <c r="W24" s="12">
@@ -28964,7 +28964,7 @@
         <v>18.161091684288483</v>
       </c>
       <c r="X24" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18.39206637906177</v>
       </c>
       <c r="Y24" s="13">
@@ -28988,7 +28988,7 @@
         <v>-300.06710710858169</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7">
         <v>2006</v>
       </c>
@@ -29006,7 +29006,7 @@
         <v>343.62999999999994</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>38.552932728986228</v>
       </c>
       <c r="G25" s="7">
@@ -29025,11 +29025,11 @@
         <v>0.29076043551088998</v>
       </c>
       <c r="L25" s="2">
+        <f t="shared" si="6"/>
+        <v>1.7098396979386781</v>
+      </c>
+      <c r="M25" s="2">
         <f t="shared" si="7"/>
-        <v>1.7098396979386781</v>
-      </c>
-      <c r="M25" s="2">
-        <f t="shared" si="8"/>
         <v>4.8273275639194799E-2</v>
       </c>
       <c r="N25" s="2">
@@ -29049,11 +29049,11 @@
         <v>3.8534760534503221E-3</v>
       </c>
       <c r="R25" s="4">
+        <f t="shared" si="8"/>
+        <v>0.2414572486352749</v>
+      </c>
+      <c r="S25" s="4">
         <f t="shared" si="2"/>
-        <v>0.2414572486352749</v>
-      </c>
-      <c r="S25" s="4">
-        <f t="shared" si="3"/>
         <v>3.5109739857206797E-3</v>
       </c>
       <c r="T25" s="4">
@@ -29065,7 +29065,7 @@
         <v>816.24307423493644</v>
       </c>
       <c r="V25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>803.45735882827876</v>
       </c>
       <c r="W25" s="12">
@@ -29073,7 +29073,7 @@
         <v>16.989718067111458</v>
       </c>
       <c r="X25" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17.260081761784971</v>
       </c>
       <c r="Y25" s="13">
@@ -29097,7 +29097,7 @@
         <v>-300.36412062263838</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7">
         <v>2006</v>
       </c>
@@ -29115,7 +29115,7 @@
         <v>359.52999999999992</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40.33680384149352</v>
       </c>
       <c r="G26" s="7">
@@ -29134,11 +29134,11 @@
         <v>0.28147878419327399</v>
       </c>
       <c r="L26" s="2">
+        <f t="shared" si="6"/>
+        <v>1.6624830357951226</v>
+      </c>
+      <c r="M26" s="2">
         <f t="shared" si="7"/>
-        <v>1.6624830357951226</v>
-      </c>
-      <c r="M26" s="2">
-        <f t="shared" si="8"/>
         <v>4.2869276084336293E-2</v>
       </c>
       <c r="N26" s="2">
@@ -29158,11 +29158,11 @@
         <v>3.3117687474342183E-3</v>
       </c>
       <c r="R26" s="4">
+        <f t="shared" si="8"/>
+        <v>0.2756146883021115</v>
+      </c>
+      <c r="S26" s="4">
         <f t="shared" si="2"/>
-        <v>0.2756146883021115</v>
-      </c>
-      <c r="S26" s="4">
-        <f t="shared" si="3"/>
         <v>2.9156987455681684E-3</v>
       </c>
       <c r="T26" s="4">
@@ -29174,7 +29174,7 @@
         <v>890.08906324575105</v>
       </c>
       <c r="V26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>872.9121557936445</v>
       </c>
       <c r="W26" s="12">
@@ -29182,7 +29182,7 @@
         <v>16.013411036923671</v>
       </c>
       <c r="X26" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16.328518207270836</v>
       </c>
       <c r="Y26" s="13">
@@ -29206,7 +29206,7 @@
         <v>-300.58833190687045</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7">
         <v>2006</v>
       </c>
@@ -29224,7 +29224,7 @@
         <v>375.07999999999993</v>
       </c>
       <c r="F27" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42.081407350895304</v>
       </c>
       <c r="G27" s="7">
@@ -29243,11 +29243,11 @@
         <v>0.44325929175061402</v>
       </c>
       <c r="L27" s="2">
+        <f t="shared" si="6"/>
+        <v>2.9320752374592791</v>
+      </c>
+      <c r="M27" s="2">
         <f t="shared" si="7"/>
-        <v>2.9320752374592791</v>
-      </c>
-      <c r="M27" s="2">
-        <f t="shared" si="8"/>
         <v>8.6387694983543734E-2</v>
       </c>
       <c r="N27" s="2">
@@ -29267,11 +29267,11 @@
         <v>2.767454916571932E-3</v>
       </c>
       <c r="R27" s="4">
+        <f t="shared" si="8"/>
+        <v>0.31176958867262328</v>
+      </c>
+      <c r="S27" s="4">
         <f t="shared" si="2"/>
-        <v>0.31176958867262328</v>
-      </c>
-      <c r="S27" s="4">
-        <f t="shared" si="3"/>
         <v>2.4203052733554999E-3</v>
       </c>
       <c r="T27" s="4">
@@ -29283,7 +29283,7 @@
         <v>960.0581797891374</v>
       </c>
       <c r="V27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>938.35728322363445</v>
       </c>
       <c r="W27" s="12">
@@ -29291,7 +29291,7 @@
         <v>15.552085276200998</v>
       </c>
       <c r="X27" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15.911750192742479</v>
       </c>
       <c r="Y27" s="13">
@@ -29315,7 +29315,7 @@
         <v>-301.1972105094888</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7">
         <v>2006</v>
       </c>
@@ -29333,7 +29333,7 @@
         <v>390.74999999999994</v>
       </c>
       <c r="F28" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43.839474038504697</v>
       </c>
       <c r="G28" s="7">
@@ -29352,11 +29352,11 @@
         <v>0.392487750223043</v>
       </c>
       <c r="L28" s="2">
+        <f t="shared" si="6"/>
+        <v>3.279514782658846</v>
+      </c>
+      <c r="M28" s="2">
         <f t="shared" si="7"/>
-        <v>3.279514782658846</v>
-      </c>
-      <c r="M28" s="2">
-        <f t="shared" si="8"/>
         <v>9.4472276149922665E-2</v>
       </c>
       <c r="N28" s="2">
@@ -29376,11 +29376,11 @@
         <v>2.3857919329095534E-3</v>
       </c>
       <c r="R28" s="4">
+        <f t="shared" si="8"/>
+        <v>0.35067975830929377</v>
+      </c>
+      <c r="S28" s="4">
         <f t="shared" si="2"/>
-        <v>0.35067975830929377</v>
-      </c>
-      <c r="S28" s="4">
-        <f t="shared" si="3"/>
         <v>1.9597074350661161E-3</v>
       </c>
       <c r="T28" s="4">
@@ -29392,7 +29392,7 @@
         <v>1026.4887326390892</v>
       </c>
       <c r="V28" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>999.16584265047936</v>
       </c>
       <c r="W28" s="12">
@@ -29400,7 +29400,7 @@
         <v>15.284386118675467</v>
       </c>
       <c r="X28" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15.702348365419418</v>
       </c>
       <c r="Y28" s="13">
@@ -29424,7 +29424,7 @@
         <v>-301.87648801052023</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7">
         <v>2006</v>
       </c>
@@ -29442,7 +29442,7 @@
         <v>406.74999999999994</v>
       </c>
       <c r="F29" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.63456446618499</v>
       </c>
       <c r="G29" s="7">
@@ -29461,11 +29461,11 @@
         <v>0.35855846869843799</v>
       </c>
       <c r="L29" s="2">
+        <f t="shared" si="6"/>
+        <v>2.2571301832521122</v>
+      </c>
+      <c r="M29" s="2">
         <f t="shared" si="7"/>
-        <v>2.2571301832521122</v>
-      </c>
-      <c r="M29" s="2">
-        <f t="shared" si="8"/>
         <v>5.3773134113254711E-2</v>
       </c>
       <c r="N29" s="2">
@@ -29485,11 +29485,11 @@
         <v>2.0793707221229418E-3</v>
       </c>
       <c r="R29" s="4">
+        <f t="shared" si="8"/>
+        <v>0.39256487877214713</v>
+      </c>
+      <c r="S29" s="4">
         <f t="shared" si="2"/>
-        <v>0.39256487877214713</v>
-      </c>
-      <c r="S29" s="4">
-        <f t="shared" si="3"/>
         <v>1.5757558881733056E-3</v>
       </c>
       <c r="T29" s="4">
@@ -29501,7 +29501,7 @@
         <v>1089.0469157434707</v>
       </c>
       <c r="V29" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1054.9195637341925</v>
       </c>
       <c r="W29" s="12">
@@ -29509,7 +29509,7 @@
         <v>14.888117970822522</v>
       </c>
       <c r="X29" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15.369758524484626</v>
       </c>
       <c r="Y29" s="13">
@@ -29533,7 +29533,7 @@
         <v>-302.17818151162709</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7">
         <v>2006</v>
       </c>
@@ -29551,7 +29551,7 @@
         <v>422.02999999999992</v>
       </c>
       <c r="F30" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>47.348875824619675</v>
       </c>
       <c r="G30" s="7">
@@ -29570,11 +29570,11 @@
         <v>0.321163891375147</v>
       </c>
       <c r="L30" s="2">
+        <f t="shared" si="6"/>
+        <v>2.6988251298258796</v>
+      </c>
+      <c r="M30" s="2">
         <f t="shared" si="7"/>
-        <v>2.6988251298258796</v>
-      </c>
-      <c r="M30" s="2">
-        <f t="shared" si="8"/>
         <v>6.5948995268066579E-2</v>
       </c>
       <c r="N30" s="2">
@@ -29594,11 +29594,11 @@
         <v>1.6981298720188942E-3</v>
       </c>
       <c r="R30" s="4">
+        <f t="shared" si="8"/>
+        <v>0.43410738061412918</v>
+      </c>
+      <c r="S30" s="4">
         <f t="shared" si="2"/>
-        <v>0.43410738061412918</v>
-      </c>
-      <c r="S30" s="4">
-        <f t="shared" si="3"/>
         <v>1.1087543420560475E-3</v>
       </c>
       <c r="T30" s="4">
@@ -29610,7 +29610,7 @@
         <v>1137.9476116225153</v>
       </c>
       <c r="V30" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1096.0849974842956</v>
       </c>
       <c r="W30" s="12">
@@ -29618,7 +29618,7 @@
         <v>14.79921751711405</v>
       </c>
       <c r="X30" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15.364441869138266</v>
       </c>
       <c r="Y30" s="13">
@@ -29642,7 +29642,7 @@
         <v>-302.58833785634528</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7">
         <v>2006</v>
       </c>
@@ -29660,7 +29660,7 @@
         <v>435.9899999999999</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>48.915092222770731</v>
       </c>
       <c r="G31" s="7">
@@ -29679,11 +29679,11 @@
         <v>0.28577246112531501</v>
       </c>
       <c r="L31" s="2">
+        <f t="shared" si="6"/>
+        <v>2.5091763139537626</v>
+      </c>
+      <c r="M31" s="2">
         <f t="shared" si="7"/>
-        <v>2.5091763139537626</v>
-      </c>
-      <c r="M31" s="2">
-        <f t="shared" si="8"/>
         <v>5.8002408172840178E-2</v>
       </c>
       <c r="N31" s="2">
@@ -29703,11 +29703,11 @@
         <v>1.3401990145096576E-3</v>
       </c>
       <c r="R31" s="4">
+        <f t="shared" si="8"/>
+        <v>0.47290387769889508</v>
+      </c>
+      <c r="S31" s="4">
         <f t="shared" si="2"/>
-        <v>0.47290387769889508</v>
-      </c>
-      <c r="S31" s="4">
-        <f t="shared" si="3"/>
         <v>6.6467706912330378E-4</v>
       </c>
       <c r="T31" s="4">
@@ -29719,7 +29719,7 @@
         <v>1177.0371770494851</v>
       </c>
       <c r="V31" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1126.4988147175172</v>
       </c>
       <c r="W31" s="12">
@@ -29727,7 +29727,7 @@
         <v>14.803565598386541</v>
       </c>
       <c r="X31" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15.467701194662263</v>
       </c>
       <c r="Y31" s="13">
@@ -29751,7 +29751,7 @@
         <v>-302.93946994776746</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7">
         <v>2006</v>
       </c>
@@ -29769,7 +29769,7 @@
         <v>449.21999999999991</v>
       </c>
       <c r="F32" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>50.399407620158875</v>
       </c>
       <c r="G32" s="7">
@@ -29788,11 +29788,11 @@
         <v>0.26933475203988</v>
       </c>
       <c r="L32" s="2">
+        <f t="shared" si="6"/>
+        <v>2.3401494614366016</v>
+      </c>
+      <c r="M32" s="2">
         <f t="shared" si="7"/>
-        <v>2.3401494614366016</v>
-      </c>
-      <c r="M32" s="2">
-        <f t="shared" si="8"/>
         <v>5.022060418209448E-2</v>
       </c>
       <c r="N32" s="2">
@@ -29812,11 +29812,11 @@
         <v>1.1085760174516235E-3</v>
       </c>
       <c r="R32" s="4">
+        <f t="shared" si="8"/>
+        <v>0.50998386329739265</v>
+      </c>
+      <c r="S32" s="4">
         <f t="shared" si="2"/>
-        <v>0.50998386329739265</v>
-      </c>
-      <c r="S32" s="4">
-        <f t="shared" si="3"/>
         <v>3.6332104558792482E-4</v>
       </c>
       <c r="T32" s="4">
@@ -29828,7 +29828,7 @@
         <v>1232.9554940047078</v>
       </c>
       <c r="V32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1171.7487932525748</v>
       </c>
       <c r="W32" s="12">
@@ -29836,7 +29836,7 @@
         <v>14.574385130735562</v>
       </c>
       <c r="X32" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15.335683144849227</v>
       </c>
       <c r="Y32" s="13">
@@ -29860,7 +29860,7 @@
         <v>-303.21679055414535</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7">
         <v>2006</v>
       </c>
@@ -29878,7 +29878,7 @@
         <v>463.40999999999991</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>51.99142844320783</v>
       </c>
       <c r="G33" s="7">
@@ -29897,11 +29897,11 @@
         <v>0.23829012495983801</v>
       </c>
       <c r="L33" s="2">
+        <f t="shared" si="6"/>
+        <v>2.0984495141073181</v>
+      </c>
+      <c r="M33" s="2">
         <f t="shared" si="7"/>
-        <v>2.0984495141073181</v>
-      </c>
-      <c r="M33" s="2">
-        <f t="shared" si="8"/>
         <v>4.1199215014558387E-2</v>
       </c>
       <c r="N33" s="2">
@@ -29921,11 +29921,11 @@
         <v>1.0367973422988896E-3</v>
       </c>
       <c r="R33" s="4">
+        <f t="shared" si="8"/>
+        <v>0.54962182802655213</v>
+      </c>
+      <c r="S33" s="4">
         <f t="shared" si="2"/>
-        <v>0.54962182802655213</v>
-      </c>
-      <c r="S33" s="4">
-        <f t="shared" si="3"/>
         <v>1.9949259440798877E-4</v>
       </c>
       <c r="T33" s="4">
@@ -29937,7 +29937,7 @@
         <v>1291.3030701791306</v>
       </c>
       <c r="V33" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1217.5415568730023</v>
       </c>
       <c r="W33" s="12">
@@ -29945,7 +29945,7 @@
         <v>14.29516443099932</v>
       </c>
       <c r="X33" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15.161198904679654</v>
       </c>
       <c r="Y33" s="13">
@@ -29969,7 +29969,7 @@
         <v>-303.41572915304874</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7">
         <v>2006</v>
       </c>
@@ -29987,7 +29987,7 @@
         <v>479.24999999999989</v>
       </c>
       <c r="F34" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53.768567966611322</v>
       </c>
       <c r="G34" s="7">
@@ -30006,11 +30006,11 @@
         <v>0.39902218598418099</v>
       </c>
       <c r="L34" s="2">
+        <f t="shared" si="6"/>
+        <v>2.8225686863422355</v>
+      </c>
+      <c r="M34" s="2">
         <f t="shared" si="7"/>
-        <v>2.8225686863422355</v>
-      </c>
-      <c r="M34" s="2">
-        <f t="shared" si="8"/>
         <v>5.8215960944039108E-2</v>
       </c>
       <c r="N34" s="2">
@@ -30030,11 +30030,11 @@
         <v>9.9620099150099506E-4</v>
       </c>
       <c r="R34" s="4">
+        <f t="shared" si="8"/>
+        <v>0.59311477737953822</v>
+      </c>
+      <c r="S34" s="4">
         <f t="shared" si="2"/>
-        <v>0.59311477737953822</v>
-      </c>
-      <c r="S34" s="4">
-        <f t="shared" si="3"/>
         <v>2.8330334676092699E-4</v>
       </c>
       <c r="T34" s="4">
@@ -30046,7 +30046,7 @@
         <v>1359.6822897748398</v>
       </c>
       <c r="V34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1273.2411255794932</v>
       </c>
       <c r="W34" s="12">
@@ -30054,7 +30054,7 @@
         <v>14.060320622373959</v>
       </c>
       <c r="X34" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15.014884890791446</v>
       </c>
       <c r="Y34" s="13">
@@ -30078,7 +30078,7 @@
         <v>-303.73757309211942</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7">
         <v>2006</v>
       </c>
@@ -30096,7 +30096,7 @@
         <v>495.24999999999989</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55.563658394291615</v>
       </c>
       <c r="G35" s="7">
@@ -30115,11 +30115,11 @@
         <v>0.37404480883505598</v>
       </c>
       <c r="L35" s="2">
+        <f t="shared" si="6"/>
+        <v>1.9647734943192483</v>
+      </c>
+      <c r="M35" s="2">
         <f t="shared" si="7"/>
-        <v>1.9647734943192483</v>
-      </c>
-      <c r="M35" s="2">
-        <f t="shared" si="8"/>
         <v>3.4085855225098674E-2</v>
       </c>
       <c r="N35" s="2">
@@ -30139,11 +30139,11 @@
         <v>8.5818576852170203E-4</v>
       </c>
       <c r="R35" s="4">
+        <f t="shared" si="8"/>
+        <v>0.63561124938713154</v>
+      </c>
+      <c r="S35" s="4">
         <f t="shared" si="2"/>
-        <v>0.63561124938713154</v>
-      </c>
-      <c r="S35" s="4">
-        <f t="shared" si="3"/>
         <v>6.2457446288280449E-5</v>
       </c>
       <c r="T35" s="4">
@@ -30155,7 +30155,7 @@
         <v>1414.4077675420524</v>
       </c>
       <c r="V35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1314.4710562742014</v>
       </c>
       <c r="W35" s="12">
@@ -30187,7 +30187,7 @@
         <v>-303.87648135349838</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7">
         <v>2006</v>
       </c>
@@ -30205,7 +30205,7 @@
         <v>511.14999999999986</v>
       </c>
       <c r="F36" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57.347529506798914</v>
       </c>
       <c r="G36" s="7">
@@ -30224,11 +30224,11 @@
         <v>0.36518424717831899</v>
       </c>
       <c r="L36" s="2">
+        <f t="shared" si="6"/>
+        <v>1.7060642109244781</v>
+      </c>
+      <c r="M36" s="2">
         <f t="shared" si="7"/>
-        <v>1.7060642109244781</v>
-      </c>
-      <c r="M36" s="2">
-        <f t="shared" si="8"/>
         <v>2.7740486317282376E-2</v>
       </c>
       <c r="N36" s="2">
@@ -30248,11 +30248,11 @@
         <v>7.2708085627382069E-4</v>
       </c>
       <c r="R36" s="4">
+        <f t="shared" si="8"/>
+        <v>0.67584740708315549</v>
+      </c>
+      <c r="S36" s="4">
         <f t="shared" si="2"/>
-        <v>0.67584740708315549</v>
-      </c>
-      <c r="S36" s="4">
-        <f t="shared" si="3"/>
         <v>-1.3099630476632825E-4</v>
       </c>
       <c r="T36" s="4">
@@ -30264,7 +30264,7 @@
         <v>1438.9852532659818</v>
       </c>
       <c r="V36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1326.5081116953945</v>
       </c>
       <c r="W36" s="12">
@@ -30296,7 +30296,7 @@
         <v>-303.97970353148645</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7">
         <v>2006</v>
       </c>
@@ -30314,7 +30314,7 @@
         <v>526.70999999999981</v>
       </c>
       <c r="F37" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59.093254947717988</v>
       </c>
       <c r="G37" s="7">
@@ -30333,11 +30333,11 @@
         <v>0.348802716151356</v>
       </c>
       <c r="L37" s="2">
+        <f t="shared" si="6"/>
+        <v>1.9873065631421252</v>
+      </c>
+      <c r="M37" s="2">
         <f t="shared" si="7"/>
-        <v>1.9873065631421252</v>
-      </c>
-      <c r="M37" s="2">
-        <f t="shared" si="8"/>
         <v>3.4040963220375198E-2</v>
       </c>
       <c r="N37" s="2">
@@ -30357,11 +30357,11 @@
         <v>6.0794082504100899E-4</v>
       </c>
       <c r="R37" s="4">
+        <f t="shared" si="8"/>
+        <v>0.71286211829211898</v>
+      </c>
+      <c r="S37" s="4">
         <f t="shared" si="2"/>
-        <v>0.71286211829211898</v>
-      </c>
-      <c r="S37" s="4">
-        <f t="shared" si="3"/>
         <v>-3.2048692533982823E-4</v>
       </c>
       <c r="T37" s="4">
@@ -30373,7 +30373,7 @@
         <v>1450.4674035759745</v>
       </c>
       <c r="V37" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1325.5355145676945</v>
       </c>
       <c r="W37" s="12">
@@ -30405,7 +30405,7 @@
         <v>-304.13528397792749</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="7">
         <v>2006</v>
       </c>
@@ -30423,7 +30423,7 @@
         <v>542.0899999999998</v>
       </c>
       <c r="F38" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60.818785621325674</v>
       </c>
       <c r="G38" s="7">
@@ -30442,11 +30442,11 @@
         <v>0.33002937829359902</v>
       </c>
       <c r="L38" s="2">
+        <f t="shared" si="6"/>
+        <v>2.3641713049666682</v>
+      </c>
+      <c r="M38" s="2">
         <f t="shared" si="7"/>
-        <v>2.3641713049666682</v>
-      </c>
-      <c r="M38" s="2">
-        <f t="shared" si="8"/>
         <v>4.2665464646131752E-2</v>
       </c>
       <c r="N38" s="2">
@@ -30466,11 +30466,11 @@
         <v>5.147692796347858E-4</v>
       </c>
       <c r="R38" s="4">
+        <f t="shared" si="8"/>
+        <v>0.74684931913676</v>
+      </c>
+      <c r="S38" s="4">
         <f t="shared" si="2"/>
-        <v>0.74684931913676</v>
-      </c>
-      <c r="S38" s="4">
-        <f t="shared" si="3"/>
         <v>-4.859649256913289E-4</v>
       </c>
       <c r="T38" s="4">
@@ -30482,7 +30482,7 @@
         <v>1468.8296178060625</v>
       </c>
       <c r="V38" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1329.9465879975492</v>
       </c>
       <c r="W38" s="12">
@@ -30514,7 +30514,7 @@
         <v>-304.36383977696642</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7">
         <v>2006</v>
       </c>
@@ -30532,7 +30532,7 @@
         <v>557.4699999999998</v>
       </c>
       <c r="F39" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62.544316294933353</v>
       </c>
       <c r="G39" s="7">
@@ -30551,11 +30551,11 @@
         <v>0.30693948158630102</v>
       </c>
       <c r="L39" s="2">
+        <f t="shared" si="6"/>
+        <v>2.6944248685486083</v>
+      </c>
+      <c r="M39" s="2">
         <f t="shared" si="7"/>
-        <v>2.6944248685486083</v>
-      </c>
-      <c r="M39" s="2">
-        <f t="shared" si="8"/>
         <v>5.0187042097332171E-2</v>
       </c>
       <c r="N39" s="2">
@@ -30575,11 +30575,11 @@
         <v>4.413855689939794E-4</v>
       </c>
       <c r="R39" s="4">
+        <f t="shared" si="8"/>
+        <v>0.77806605463253908</v>
+      </c>
+      <c r="S39" s="4">
         <f t="shared" si="2"/>
-        <v>0.77806605463253908</v>
-      </c>
-      <c r="S39" s="4">
-        <f t="shared" si="3"/>
         <v>-6.3710815737347856E-4</v>
       </c>
       <c r="T39" s="4">
@@ -30591,7 +30591,7 @@
         <v>1492.0127682960149</v>
       </c>
       <c r="V39" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1337.6690939312784</v>
       </c>
       <c r="W39" s="12">
@@ -30623,7 +30623,7 @@
         <v>-304.66318290142715</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7">
         <v>2006</v>
       </c>
@@ -30641,7 +30641,7 @@
         <v>573.12999999999977</v>
       </c>
       <c r="F40" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64.301261051025435</v>
       </c>
       <c r="G40" s="7">
@@ -30660,11 +30660,11 @@
         <v>0.488237541252866</v>
       </c>
       <c r="L40" s="2">
+        <f t="shared" si="6"/>
+        <v>2.3985359171091964</v>
+      </c>
+      <c r="M40" s="2">
         <f t="shared" si="7"/>
-        <v>2.3985359171091964</v>
-      </c>
-      <c r="M40" s="2">
-        <f t="shared" si="8"/>
         <v>4.1000773451711922E-2</v>
       </c>
       <c r="N40" s="2">
@@ -30684,11 +30684,11 @@
         <v>3.8482809376061411E-4</v>
       </c>
       <c r="R40" s="4">
+        <f t="shared" si="8"/>
+        <v>0.80692096364192256</v>
+      </c>
+      <c r="S40" s="4">
         <f t="shared" si="2"/>
-        <v>0.80692096364192256</v>
-      </c>
-      <c r="S40" s="4">
-        <f t="shared" si="3"/>
         <v>-4.4107561897537993E-4</v>
       </c>
       <c r="T40" s="4">
@@ -30700,7 +30700,7 @@
         <v>1546.8289977795844</v>
       </c>
       <c r="V40" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1376.3140879091993</v>
       </c>
       <c r="W40" s="12">
@@ -30732,7 +30732,7 @@
         <v>-304.88064923224721</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="7">
         <v>2006</v>
       </c>
@@ -30750,7 +30750,7 @@
         <v>588.89999999999975</v>
       </c>
       <c r="F41" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66.070547053807829</v>
       </c>
       <c r="G41" s="7">
@@ -30769,11 +30769,11 @@
         <v>0.4504347882802</v>
       </c>
       <c r="L41" s="2">
+        <f t="shared" si="6"/>
+        <v>1.658402562514284</v>
+      </c>
+      <c r="M41" s="2">
         <f t="shared" si="7"/>
-        <v>1.658402562514284</v>
-      </c>
-      <c r="M41" s="2">
-        <f t="shared" si="8"/>
         <v>2.3863078389053133E-2</v>
       </c>
       <c r="N41" s="2">
@@ -30793,11 +30793,11 @@
         <v>3.3117960276607405E-4</v>
       </c>
       <c r="R41" s="4">
+        <f t="shared" si="8"/>
+        <v>0.83300206935361087</v>
+      </c>
+      <c r="S41" s="4">
         <f t="shared" si="2"/>
-        <v>0.83300206935361087</v>
-      </c>
-      <c r="S41" s="4">
-        <f t="shared" si="3"/>
         <v>-5.8439831444862325E-4</v>
       </c>
       <c r="T41" s="4">
@@ -30809,7 +30809,7 @@
         <v>1597.4858885699746</v>
       </c>
       <c r="V41" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1409.6169567312998</v>
       </c>
       <c r="W41" s="12">
@@ -30841,7 +30841,7 @@
         <v>-304.96882557812654</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="7">
         <v>2006</v>
       </c>
@@ -30859,7 +30859,7 @@
         <v>604.05999999999972</v>
       </c>
       <c r="F42" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67.771395234034898</v>
       </c>
       <c r="G42" s="7">
@@ -30878,11 +30878,11 @@
         <v>0.41653193223073498</v>
       </c>
       <c r="L42" s="2">
+        <f t="shared" si="6"/>
+        <v>0.85994896137787125</v>
+      </c>
+      <c r="M42" s="2">
         <f t="shared" si="7"/>
-        <v>0.85994896137787125</v>
-      </c>
-      <c r="M42" s="2">
-        <f t="shared" si="8"/>
         <v>9.5356748394499046E-3</v>
       </c>
       <c r="N42" s="2">
@@ -30902,11 +30902,11 @@
         <v>2.727302554883515E-4</v>
       </c>
       <c r="R42" s="4">
+        <f t="shared" si="8"/>
+        <v>0.85534329550069566</v>
+      </c>
+      <c r="S42" s="4">
         <f t="shared" si="2"/>
-        <v>0.85534329550069566</v>
-      </c>
-      <c r="S42" s="4">
-        <f t="shared" si="3"/>
         <v>-7.2540074432202108E-4</v>
       </c>
       <c r="T42" s="4">
@@ -30918,7 +30918,7 @@
         <v>1630.4446046473824</v>
       </c>
       <c r="V42" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1425.8970371841751</v>
       </c>
       <c r="W42" s="12">
@@ -30950,7 +30950,7 @@
         <v>-304.97507575937703</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7">
         <v>2006</v>
       </c>
@@ -30968,7 +30968,7 @@
         <v>617.76999999999975</v>
       </c>
       <c r="F43" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>69.309563344253462</v>
       </c>
       <c r="G43" s="7">
@@ -30987,11 +30987,11 @@
         <v>0.39318111177440201</v>
       </c>
       <c r="L43" s="2">
+        <f t="shared" si="6"/>
+        <v>2.8307584100034808</v>
+      </c>
+      <c r="M43" s="2">
         <f t="shared" si="7"/>
-        <v>2.8307584100034808</v>
-      </c>
-      <c r="M43" s="2">
-        <f t="shared" si="8"/>
         <v>4.8040899965625078E-2</v>
       </c>
       <c r="N43" s="2">
@@ -31011,11 +31011,11 @@
         <v>2.1345456137256136E-4</v>
       </c>
       <c r="R43" s="4">
+        <f t="shared" si="8"/>
+        <v>0.87335523385144476</v>
+      </c>
+      <c r="S43" s="4">
         <f t="shared" si="2"/>
-        <v>0.87335523385144476</v>
-      </c>
-      <c r="S43" s="4">
-        <f t="shared" si="3"/>
         <v>-8.4648234269092053E-4</v>
       </c>
       <c r="T43" s="4">
@@ -31027,7 +31027,7 @@
         <v>1637.8779591555269</v>
       </c>
       <c r="V43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1419.0574878155383</v>
       </c>
       <c r="W43" s="12">
@@ -31059,7 +31059,7 @@
         <v>-305.25407034644655</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7">
         <v>2006</v>
       </c>
@@ -31077,7 +31077,7 @@
         <v>633.41999999999973</v>
       </c>
       <c r="F44" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>71.065386168828255</v>
       </c>
       <c r="G44" s="7">
@@ -31096,11 +31096,11 @@
         <v>0.369045994086377</v>
       </c>
       <c r="L44" s="2">
+        <f t="shared" si="6"/>
+        <v>2.9159086988433534</v>
+      </c>
+      <c r="M44" s="2">
         <f t="shared" si="7"/>
-        <v>2.9159086988433534</v>
-      </c>
-      <c r="M44" s="2">
-        <f t="shared" si="8"/>
         <v>4.8180652589258778E-2</v>
       </c>
       <c r="N44" s="2">
@@ -31120,11 +31120,11 @@
         <v>2.1044127745262209E-4</v>
       </c>
       <c r="R44" s="4">
+        <f t="shared" si="8"/>
+        <v>0.89153707526579595</v>
+      </c>
+      <c r="S44" s="4">
         <f t="shared" si="2"/>
-        <v>0.89153707526579595</v>
-      </c>
-      <c r="S44" s="4">
-        <f t="shared" si="3"/>
         <v>-9.1459650066631607E-4</v>
       </c>
       <c r="T44" s="4">
@@ -31136,7 +31136,7 @@
         <v>1687.0456439060838</v>
       </c>
       <c r="V44" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1447.3200401281924</v>
       </c>
       <c r="W44" s="12">
@@ -31168,7 +31168,7 @@
         <v>-305.53135976295943</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7">
         <v>2006</v>
       </c>
@@ -31186,7 +31186,7 @@
         <v>649.39999999999975</v>
       </c>
       <c r="F45" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>72.858232733473955</v>
       </c>
       <c r="G45" s="7">
@@ -31205,11 +31205,11 @@
         <v>0.34417954461903799</v>
       </c>
       <c r="L45" s="2">
+        <f t="shared" si="6"/>
+        <v>2.1309975701361648</v>
+      </c>
+      <c r="M45" s="2">
         <f t="shared" si="7"/>
-        <v>2.1309975701361648</v>
-      </c>
-      <c r="M45" s="2">
-        <f t="shared" si="8"/>
         <v>3.0313971833849235E-2</v>
       </c>
       <c r="N45" s="2">
@@ -31229,11 +31229,11 @@
         <v>1.8345458500723666E-4</v>
       </c>
       <c r="R45" s="4">
+        <f t="shared" si="8"/>
+        <v>0.90769610306105097</v>
+      </c>
+      <c r="S45" s="4">
         <f t="shared" si="2"/>
-        <v>0.90769610306105097</v>
-      </c>
-      <c r="S45" s="4">
-        <f t="shared" si="3"/>
         <v>-1.0071167583068094E-3</v>
       </c>
       <c r="T45" s="4">
@@ -31245,7 +31245,7 @@
         <v>1736.5474374498326</v>
       </c>
       <c r="V45" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1474.5046631913867</v>
       </c>
       <c r="W45" s="12">
@@ -31277,7 +31277,7 @@
         <v>-305.66803130415673</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="7">
         <v>2006</v>
       </c>
@@ -31295,7 +31295,7 @@
         <v>664.55999999999972</v>
       </c>
       <c r="F46" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>74.559080913701024</v>
       </c>
       <c r="G46" s="7">
@@ -31314,11 +31314,11 @@
         <v>0.32354410738699402</v>
       </c>
       <c r="L46" s="2">
+        <f t="shared" si="6"/>
+        <v>2.5326745999429634</v>
+      </c>
+      <c r="M46" s="2">
         <f t="shared" si="7"/>
-        <v>2.5326745999429634</v>
-      </c>
-      <c r="M46" s="2">
-        <f t="shared" si="8"/>
         <v>3.802549991580325E-2</v>
       </c>
       <c r="N46" s="2">
@@ -31338,11 +31338,11 @@
         <v>1.489310178930392E-4</v>
       </c>
       <c r="R46" s="4">
+        <f t="shared" si="8"/>
+        <v>0.92099242600783793</v>
+      </c>
+      <c r="S46" s="4">
         <f t="shared" si="2"/>
-        <v>0.92099242600783793</v>
-      </c>
-      <c r="S46" s="4">
-        <f t="shared" si="3"/>
         <v>-1.0970904893568606E-3</v>
       </c>
       <c r="T46" s="4">
@@ -31354,7 +31354,7 @@
         <v>1749.6333587595982</v>
       </c>
       <c r="V46" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1469.8775111371688</v>
       </c>
       <c r="W46" s="12">
@@ -31386,7 +31386,7 @@
         <v>-305.87334495359738</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7">
         <v>2006</v>
       </c>
@@ -31404,7 +31404,7 @@
         <v>677.62999999999977</v>
       </c>
       <c r="F47" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>76.025445406812366</v>
       </c>
       <c r="G47" s="7">
@@ -31423,11 +31423,11 @@
         <v>0.30451964039146501</v>
       </c>
       <c r="L47" s="2">
+        <f t="shared" si="6"/>
+        <v>2.3315681811813533</v>
+      </c>
+      <c r="M47" s="2">
         <f t="shared" si="7"/>
-        <v>2.3315681811813533</v>
-      </c>
-      <c r="M47" s="2">
-        <f t="shared" si="8"/>
         <v>3.329151567143393E-2</v>
       </c>
       <c r="N47" s="2">
@@ -31447,11 +31447,11 @@
         <v>1.1146901108638474E-4</v>
       </c>
       <c r="R47" s="4">
+        <f t="shared" si="8"/>
+        <v>0.93102516253557721</v>
+      </c>
+      <c r="S47" s="4">
         <f t="shared" si="2"/>
-        <v>0.93102516253557721</v>
-      </c>
-      <c r="S47" s="4">
-        <f t="shared" si="3"/>
         <v>-1.1835504186032914E-3</v>
       </c>
       <c r="T47" s="4">
@@ -31463,7 +31463,7 @@
         <v>1778.0856022313719</v>
       </c>
       <c r="V47" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1477.5711771495887</v>
       </c>
       <c r="W47" s="12">
@@ -31495,7 +31495,7 @@
         <v>-306.04414738148375</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="7">
         <v>2006</v>
       </c>
@@ -31513,7 +31513,7 @@
         <v>693.41999999999973</v>
       </c>
       <c r="F48" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>77.796975272629354</v>
       </c>
       <c r="G48" s="7">
@@ -31532,11 +31532,11 @@
         <v>0.45833708978686999</v>
       </c>
       <c r="L48" s="2">
+        <f t="shared" si="6"/>
+        <v>3.7704920968981197</v>
+      </c>
+      <c r="M48" s="2">
         <f t="shared" si="7"/>
-        <v>3.7704920968981197</v>
-      </c>
-      <c r="M48" s="2">
-        <f t="shared" si="8"/>
         <v>6.2042030731609937E-2</v>
       </c>
       <c r="N48" s="2">
@@ -31556,11 +31556,11 @@
         <v>1.1660951693626131E-4</v>
       </c>
       <c r="R48" s="4">
+        <f t="shared" si="8"/>
+        <v>0.94156880554052413</v>
+      </c>
+      <c r="S48" s="4">
         <f t="shared" si="2"/>
-        <v>0.94156880554052413</v>
-      </c>
-      <c r="S48" s="4">
-        <f t="shared" si="3"/>
         <v>-9.0341628181370083E-4</v>
       </c>
       <c r="T48" s="4">
@@ -31572,7 +31572,7 @@
         <v>1821.4478122584917</v>
       </c>
       <c r="V48" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1500.6769078535681</v>
       </c>
       <c r="W48" s="12">
@@ -31604,7 +31604,7 @@
         <v>-306.46004419207668</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="7">
         <v>2006</v>
       </c>
@@ -31622,7 +31622,7 @@
         <v>709.41999999999973</v>
       </c>
       <c r="F49" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>79.592065700309647</v>
       </c>
       <c r="G49" s="7">
@@ -31641,11 +31641,11 @@
         <v>0.425647525190261</v>
       </c>
       <c r="L49" s="2">
+        <f t="shared" si="6"/>
+        <v>2.6372491835170924</v>
+      </c>
+      <c r="M49" s="2">
         <f t="shared" si="7"/>
-        <v>2.6372491835170924</v>
-      </c>
-      <c r="M49" s="2">
-        <f t="shared" si="8"/>
         <v>3.715057639536213E-2</v>
       </c>
       <c r="N49" s="2">
@@ -31665,11 +31665,11 @@
         <v>1.0079820918740268E-4</v>
       </c>
       <c r="R49" s="4">
+        <f t="shared" si="8"/>
+        <v>0.95069681726201283</v>
+      </c>
+      <c r="S49" s="4">
         <f t="shared" si="2"/>
-        <v>0.95069681726201283</v>
-      </c>
-      <c r="S49" s="4">
-        <f t="shared" si="3"/>
         <v>-9.9127193038895593E-4</v>
       </c>
       <c r="T49" s="4">
@@ -31681,7 +31681,7 @@
         <v>1859.3875312749014</v>
       </c>
       <c r="V49" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1518.08715644571</v>
       </c>
       <c r="W49" s="12">
@@ -31713,7 +31713,7 @@
         <v>-306.66738853764753</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7">
         <v>2006</v>
       </c>
@@ -31731,7 +31731,7 @@
         <v>723.17999999999972</v>
       </c>
       <c r="F50" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>81.1358434681147</v>
       </c>
       <c r="G50" s="7">
@@ -31750,11 +31750,11 @@
         <v>0.39461230950832599</v>
       </c>
       <c r="L50" s="2">
+        <f t="shared" si="6"/>
+        <v>1.864892447965367</v>
+      </c>
+      <c r="M50" s="2">
         <f t="shared" si="7"/>
-        <v>1.864892447965367</v>
-      </c>
-      <c r="M50" s="2">
-        <f t="shared" si="8"/>
         <v>2.2747004230197557E-2</v>
       </c>
       <c r="N50" s="2">
@@ -31774,11 +31774,11 @@
         <v>7.4680576837904411E-5</v>
       </c>
       <c r="R50" s="4">
+        <f t="shared" si="8"/>
+        <v>0.9574496211805692</v>
+      </c>
+      <c r="S50" s="4">
         <f t="shared" si="2"/>
-        <v>0.9574496211805692</v>
-      </c>
-      <c r="S50" s="4">
-        <f t="shared" si="3"/>
         <v>-1.0845758530193615E-3</v>
       </c>
       <c r="T50" s="4">
@@ -31790,7 +31790,7 @@
         <v>1887.3096829030917</v>
       </c>
       <c r="V50" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1526.3026643307958</v>
       </c>
       <c r="W50" s="12">
@@ -31822,7 +31822,7 @@
         <v>-306.76615343650184</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7">
         <v>2006</v>
       </c>
@@ -31840,7 +31840,7 @@
         <v>736.35999999999967</v>
       </c>
       <c r="F51" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>82.61454920791634</v>
       </c>
       <c r="G51" s="7">
@@ -31859,11 +31859,11 @@
         <v>0.36595688951296901</v>
       </c>
       <c r="L51" s="2">
+        <f t="shared" si="6"/>
+        <v>1.4180823809653544</v>
+      </c>
+      <c r="M51" s="2">
         <f t="shared" si="7"/>
-        <v>1.4180823809653544</v>
-      </c>
-      <c r="M51" s="2">
-        <f t="shared" si="8"/>
         <v>1.5186605658162294E-2</v>
       </c>
       <c r="N51" s="2">
@@ -31883,11 +31883,11 @@
         <v>6.2513945135789228E-5</v>
       </c>
       <c r="R51" s="4">
+        <f t="shared" si="8"/>
+        <v>0.96308255462059944</v>
+      </c>
+      <c r="S51" s="4">
         <f t="shared" si="2"/>
-        <v>0.96308255462059944</v>
-      </c>
-      <c r="S51" s="4">
-        <f t="shared" si="3"/>
         <v>-1.1587577720390924E-3</v>
       </c>
       <c r="T51" s="4">
@@ -31899,7 +31899,7 @@
         <v>1932.7617575797931</v>
       </c>
       <c r="V51" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1547.6582061637423</v>
       </c>
       <c r="W51" s="12">
@@ -31931,7 +31931,7 @@
         <v>-306.81047913960691</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="7">
         <v>2006</v>
       </c>
@@ -31949,7 +31949,7 @@
         <v>750.06999999999971</v>
       </c>
       <c r="F52" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>84.15271731813489</v>
       </c>
       <c r="G52" s="7">
@@ -31968,11 +31968,11 @@
         <v>0.33823821377310798</v>
       </c>
       <c r="L52" s="2">
+        <f t="shared" si="6"/>
+        <v>0.72753104963086568</v>
+      </c>
+      <c r="M52" s="2">
         <f t="shared" si="7"/>
-        <v>0.72753104963086568</v>
-      </c>
-      <c r="M52" s="2">
-        <f t="shared" si="8"/>
         <v>5.9021236271939431E-3</v>
       </c>
       <c r="N52" s="2">
@@ -31992,11 +31992,11 @@
         <v>5.6850441301437016E-5</v>
       </c>
       <c r="R52" s="4">
+        <f t="shared" si="8"/>
+        <v>0.96817842059529013</v>
+      </c>
+      <c r="S52" s="4">
         <f t="shared" si="2"/>
-        <v>0.96817842059529013</v>
-      </c>
-      <c r="S52" s="4">
-        <f t="shared" si="3"/>
         <v>-1.2245565206975037E-3</v>
       </c>
       <c r="T52" s="4">
@@ -32008,7 +32008,7 @@
         <v>1987.8221170703637</v>
       </c>
       <c r="V52" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1575.4666516632851</v>
       </c>
       <c r="W52" s="12">
@@ -32040,7 +32040,7 @@
         <v>-306.80484660201381</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="7">
         <v>2006</v>
       </c>
@@ -32058,7 +32058,7 @@
         <v>765.77999999999975</v>
       </c>
       <c r="F53" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>85.91527173181349</v>
       </c>
       <c r="G53" s="7">
@@ -32077,11 +32077,11 @@
         <v>0.31258720222396102</v>
       </c>
       <c r="L53" s="2">
+        <f t="shared" si="6"/>
+        <v>0.65688498733528378</v>
+      </c>
+      <c r="M53" s="2">
         <f t="shared" si="7"/>
-        <v>0.65688498733528378</v>
-      </c>
-      <c r="M53" s="2">
-        <f t="shared" si="8"/>
         <v>4.918831597673908E-3</v>
       </c>
       <c r="N53" s="2">
@@ -32101,11 +32101,11 @@
         <v>5.6246342643673231E-5</v>
       </c>
       <c r="R53" s="4">
+        <f t="shared" si="8"/>
+        <v>0.97318276630177236</v>
+      </c>
+      <c r="S53" s="4">
         <f t="shared" si="2"/>
-        <v>0.97318276630177236</v>
-      </c>
-      <c r="S53" s="4">
-        <f t="shared" si="3"/>
         <v>-1.2817102336181796E-3</v>
       </c>
       <c r="T53" s="4">
@@ -32117,7 +32117,7 @@
         <v>2053.3102139395264</v>
       </c>
       <c r="V53" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1610.1645192634508</v>
       </c>
       <c r="W53" s="12">
@@ -32149,7 +32149,7 @@
         <v>-306.79409128304428</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="7">
         <v>2006</v>
       </c>
@@ -32167,7 +32167,7 @@
         <v>778.38999999999976</v>
       </c>
       <c r="F54" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>87.330027375129021</v>
       </c>
       <c r="G54" s="7">
@@ -32186,11 +32186,11 @@
         <v>0.28881848892808099</v>
       </c>
       <c r="L54" s="2">
+        <f t="shared" si="6"/>
+        <v>0.59267586930289096</v>
+      </c>
+      <c r="M54" s="2">
         <f t="shared" si="7"/>
-        <v>0.59267586930289096</v>
-      </c>
-      <c r="M54" s="2">
-        <f t="shared" si="8"/>
         <v>4.1543503429353774E-3</v>
       </c>
       <c r="N54" s="2">
@@ -32210,11 +32210,11 @@
         <v>3.9172228561534794E-5</v>
       </c>
       <c r="R54" s="4">
+        <f t="shared" si="8"/>
+        <v>0.97663794174716123</v>
+      </c>
+      <c r="S54" s="4">
         <f t="shared" si="2"/>
-        <v>0.97663794174716123</v>
-      </c>
-      <c r="S54" s="4">
-        <f t="shared" si="3"/>
         <v>-1.3499614658022952E-3</v>
       </c>
       <c r="T54" s="4">
@@ -32226,7 +32226,7 @@
         <v>2098.4198802790138</v>
       </c>
       <c r="V54" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1627.721660789088</v>
       </c>
       <c r="W54" s="12">
@@ -32258,7 +32258,7 @@
         <v>-306.78178793944033</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="7">
         <v>2006</v>
       </c>
@@ -32276,7 +32276,7 @@
         <v>791.50999999999976</v>
       </c>
       <c r="F55" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>88.802001525826867</v>
       </c>
       <c r="G55" s="7">
@@ -32295,11 +32295,11 @@
         <v>0.26678323338300303</v>
       </c>
       <c r="L55" s="2">
+        <f t="shared" si="6"/>
+        <v>0.53432354351331468</v>
+      </c>
+      <c r="M55" s="2">
         <f t="shared" si="7"/>
-        <v>0.53432354351331468</v>
-      </c>
-      <c r="M55" s="2">
-        <f t="shared" si="8"/>
         <v>3.5226023051680984E-3</v>
       </c>
       <c r="N55" s="2">
@@ -32319,11 +32319,11 @@
         <v>3.5838414016886588E-5</v>
       </c>
       <c r="R55" s="4">
+        <f t="shared" si="8"/>
+        <v>0.979770970272555</v>
+      </c>
+      <c r="S55" s="4">
         <f t="shared" si="2"/>
-        <v>0.979770970272555</v>
-      </c>
-      <c r="S55" s="4">
-        <f t="shared" si="3"/>
         <v>-1.4009305916799948E-3</v>
       </c>
       <c r="T55" s="4">
@@ -32335,7 +32335,7 @@
         <v>2136.5387920868884</v>
       </c>
       <c r="V55" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1638.9394911224849</v>
       </c>
       <c r="W55" s="12">
@@ -32367,7 +32367,7 @@
         <v>-306.76830088435923</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="7">
         <v>2006</v>
       </c>
@@ -32385,7 +32385,7 @@
         <v>806.40999999999974</v>
       </c>
       <c r="F56" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>90.473679486604141</v>
       </c>
       <c r="G56" s="7">
@@ -32404,11 +32404,11 @@
         <v>0.24723221589917499</v>
       </c>
       <c r="L56" s="2">
+        <f t="shared" si="6"/>
+        <v>0.79711915593332605</v>
+      </c>
+      <c r="M56" s="2">
         <f t="shared" si="7"/>
-        <v>0.79711915593332605</v>
-      </c>
-      <c r="M56" s="2">
-        <f t="shared" si="8"/>
         <v>5.8362075068554807E-3</v>
       </c>
       <c r="N56" s="2">
@@ -32428,11 +32428,11 @@
         <v>3.538724737439658E-5</v>
       </c>
       <c r="R56" s="4">
+        <f t="shared" si="8"/>
+        <v>0.98283161080379211</v>
+      </c>
+      <c r="S56" s="4">
         <f t="shared" si="2"/>
-        <v>0.98283161080379211</v>
-      </c>
-      <c r="S56" s="4">
-        <f t="shared" si="3"/>
         <v>-1.4443007002436334E-3</v>
       </c>
       <c r="T56" s="4">
@@ -32444,7 +32444,7 @@
         <v>2199.6684301451373</v>
       </c>
       <c r="V56" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1668.3339307622362</v>
       </c>
       <c r="W56" s="12">
@@ -32476,7 +32476,7 @@
         <v>-306.75670603906133</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7">
         <v>2006</v>
       </c>
@@ -32494,7 +32494,7 @@
         <v>821.23999999999978</v>
       </c>
       <c r="F57" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>92.137503926760317</v>
       </c>
       <c r="G57" s="7">
@@ -32513,11 +32513,11 @@
         <v>0.24935202432565701</v>
       </c>
       <c r="L57" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5988420065560718</v>
+      </c>
+      <c r="M57" s="2">
         <f t="shared" si="7"/>
-        <v>1.5988420065560718</v>
-      </c>
-      <c r="M57" s="2">
-        <f t="shared" si="8"/>
         <v>1.455301128480197E-2</v>
       </c>
       <c r="N57" s="2">
@@ -32537,11 +32537,11 @@
         <v>3.0355684152549856E-5</v>
       </c>
       <c r="R57" s="4">
+        <f t="shared" si="8"/>
+        <v>0.98542478606391182</v>
+      </c>
+      <c r="S57" s="4">
         <f t="shared" si="2"/>
-        <v>0.98542478606391182</v>
-      </c>
-      <c r="S57" s="4">
-        <f t="shared" si="3"/>
         <v>-1.4490585575238459E-3</v>
       </c>
       <c r="T57" s="4">
@@ -32553,7 +32553,7 @@
         <v>2254.1878411071489</v>
       </c>
       <c r="V57" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1690.6264671245046</v>
       </c>
       <c r="W57" s="12">
@@ -32585,7 +32585,7 @@
         <v>-306.77547157573855</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="7">
         <v>2006</v>
       </c>
@@ -32603,7 +32603,7 @@
         <v>832.98999999999978</v>
       </c>
       <c r="F58" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>93.455773459588031</v>
       </c>
       <c r="G58" s="7">
@@ -32622,11 +32622,11 @@
         <v>0.23529181331264201</v>
       </c>
       <c r="L58" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0662189167858811</v>
+      </c>
+      <c r="M58" s="2">
         <f t="shared" si="7"/>
-        <v>1.0662189167858811</v>
-      </c>
-      <c r="M58" s="2">
-        <f t="shared" si="8"/>
         <v>8.1903003429284974E-3</v>
       </c>
       <c r="N58" s="2">
@@ -32646,11 +32646,11 @@
         <v>2.1050911542586093E-5</v>
       </c>
       <c r="R58" s="4">
+        <f t="shared" si="8"/>
+        <v>0.98720189356385202</v>
+      </c>
+      <c r="S58" s="4">
         <f t="shared" si="2"/>
-        <v>0.98720189356385202</v>
-      </c>
-      <c r="S58" s="4">
-        <f t="shared" si="3"/>
         <v>-1.4887918283004928E-3</v>
       </c>
       <c r="T58" s="4">
@@ -32662,7 +32662,7 @@
         <v>2294.5134411311574</v>
       </c>
       <c r="V58" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1701.545653321157</v>
       </c>
       <c r="W58" s="12">
@@ -32694,7 +32694,7 @@
         <v>-306.76929470831448</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="7">
         <v>2006</v>
       </c>
@@ -32712,7 +32712,7 @@
         <v>845.99999999999977</v>
       </c>
       <c r="F59" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>94.915406363595565</v>
       </c>
       <c r="G59" s="7">
@@ -32731,11 +32731,11 @@
         <v>0.21602714669932699</v>
       </c>
       <c r="L59" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1367902001416519</v>
+      </c>
+      <c r="M59" s="2">
         <f t="shared" si="7"/>
-        <v>1.1367902001416519</v>
-      </c>
-      <c r="M59" s="2">
-        <f t="shared" si="8"/>
         <v>8.6667310337743032E-3</v>
       </c>
       <c r="N59" s="2">
@@ -32755,11 +32755,11 @@
         <v>2.059686483080192E-5</v>
       </c>
       <c r="R59" s="4">
+        <f t="shared" si="8"/>
+        <v>0.98892075469914165</v>
+      </c>
+      <c r="S59" s="4">
         <f t="shared" si="2"/>
-        <v>0.98892075469914165</v>
-      </c>
-      <c r="S59" s="4">
-        <f t="shared" si="3"/>
         <v>-1.5299771866686802E-3</v>
       </c>
       <c r="T59" s="4">
@@ -32771,7 +32771,7 @@
         <v>2347.2445812732035</v>
       </c>
       <c r="V59" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1720.800568135239</v>
       </c>
       <c r="W59" s="12">
@@ -32803,7 +32803,7 @@
         <v>-306.76277380322119</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="7">
         <v>2006</v>
       </c>
@@ -32821,7 +32821,7 @@
         <v>860.66999999999973</v>
       </c>
       <c r="F60" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>96.56127989947494</v>
       </c>
       <c r="G60" s="7">
@@ -32840,11 +32840,11 @@
         <v>0.201954490961608</v>
       </c>
       <c r="L60" s="2">
+        <f t="shared" si="6"/>
+        <v>0.80869213521314809</v>
+      </c>
+      <c r="M60" s="2">
         <f t="shared" si="7"/>
-        <v>0.80869213521314809</v>
-      </c>
-      <c r="M60" s="2">
-        <f t="shared" si="8"/>
         <v>5.2873198164208237E-3</v>
       </c>
       <c r="N60" s="2">
@@ -32864,11 +32864,11 @@
         <v>2.0226963947544974E-5</v>
       </c>
       <c r="R60" s="4">
+        <f t="shared" si="8"/>
+        <v>0.99058627272344901</v>
+      </c>
+      <c r="S60" s="4">
         <f t="shared" si="2"/>
-        <v>0.99058627272344901</v>
-      </c>
-      <c r="S60" s="4">
-        <f t="shared" si="3"/>
         <v>-1.5608388885765116E-3</v>
       </c>
       <c r="T60" s="4">
@@ -32880,7 +32880,7 @@
         <v>2401.9147990914257</v>
       </c>
       <c r="V60" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1740.6363102706432</v>
       </c>
       <c r="W60" s="12">
@@ -32912,7 +32912,7 @@
         <v>-306.74736887816249</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="7">
         <v>2006</v>
       </c>
@@ -32930,7 +32930,7 @@
         <v>875.97999999999968</v>
       </c>
       <c r="F61" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>98.278957052461507</v>
       </c>
       <c r="G61" s="7">
@@ -32949,11 +32949,11 @@
         <v>0.190771216924044</v>
       </c>
       <c r="L61" s="2">
+        <f t="shared" si="6"/>
+        <v>0.6248249398938901</v>
+      </c>
+      <c r="M61" s="2">
         <f t="shared" si="7"/>
-        <v>0.6248249398938901</v>
-      </c>
-      <c r="M61" s="2">
-        <f t="shared" si="8"/>
         <v>3.6011140282164438E-3</v>
       </c>
       <c r="N61" s="2">
@@ -32973,11 +32973,11 @@
         <v>1.8172293471785395E-5</v>
       </c>
       <c r="R61" s="4">
+        <f t="shared" si="8"/>
+        <v>0.99206020000270656</v>
+      </c>
+      <c r="S61" s="4">
         <f t="shared" si="2"/>
-        <v>0.99206020000270656</v>
-      </c>
-      <c r="S61" s="4">
-        <f t="shared" si="3"/>
         <v>-1.5874350433007741E-3</v>
       </c>
       <c r="T61" s="4">
@@ -32989,7 +32989,7 @@
         <v>2461.8277928025923</v>
       </c>
       <c r="V61" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1763.4697814892802</v>
       </c>
       <c r="W61" s="12">
@@ -33021,7 +33021,7 @@
         <v>-306.72970147264948</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="7">
         <v>2006</v>
       </c>
@@ -33039,7 +33039,7 @@
         <v>891.31999999999971</v>
       </c>
       <c r="F62" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="G62" s="7">
@@ -33058,11 +33058,11 @@
         <v>0.17980831807575701</v>
       </c>
       <c r="L62" s="2">
+        <f t="shared" si="6"/>
+        <v>0.32594889653875725</v>
+      </c>
+      <c r="M62" s="2">
         <f t="shared" si="7"/>
-        <v>0.32594889653875725</v>
-      </c>
-      <c r="M62" s="2">
-        <f t="shared" si="8"/>
         <v>1.4709043893517833E-3</v>
       </c>
       <c r="N62" s="2">
@@ -33082,11 +33082,11 @@
         <v>1.5620896129941997E-5</v>
       </c>
       <c r="R62" s="4">
+        <f t="shared" si="8"/>
+        <v>0.99330714907571527</v>
+      </c>
+      <c r="S62" s="4">
         <f t="shared" si="2"/>
-        <v>0.99330714907571527</v>
-      </c>
-      <c r="S62" s="4">
-        <f t="shared" si="3"/>
         <v>-1.6137836264056293E-3</v>
       </c>
       <c r="T62" s="4">
@@ -33098,7 +33098,7 @@
         <v>2481.0613590712892</v>
       </c>
       <c r="V62" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1756.6850599239067</v>
       </c>
       <c r="W62" s="12">
@@ -33130,121 +33130,121 @@
         <v>-306.71597628744667</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="H63" s="9"/>
       <c r="V63" s="3"/>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="H64" s="9"/>
       <c r="V64" s="3"/>
     </row>
-    <row r="65" spans="8:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="8:22" x14ac:dyDescent="0.55000000000000004">
       <c r="H65" s="9"/>
       <c r="V65" s="3"/>
     </row>
-    <row r="66" spans="8:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="8:22" x14ac:dyDescent="0.55000000000000004">
       <c r="H66" s="9"/>
       <c r="V66" s="3"/>
     </row>
-    <row r="67" spans="8:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="8:22" x14ac:dyDescent="0.55000000000000004">
       <c r="H67" s="9"/>
       <c r="V67" s="3"/>
     </row>
-    <row r="68" spans="8:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="8:22" x14ac:dyDescent="0.55000000000000004">
       <c r="H68" s="9"/>
       <c r="V68" s="3"/>
     </row>
-    <row r="69" spans="8:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="8:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V69" s="3"/>
     </row>
-    <row r="70" spans="8:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="8:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V70" s="3"/>
     </row>
-    <row r="71" spans="8:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="8:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V71" s="3"/>
     </row>
-    <row r="72" spans="8:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="8:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V72" s="3"/>
     </row>
-    <row r="73" spans="8:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="8:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V73" s="3"/>
     </row>
-    <row r="74" spans="8:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="8:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V74" s="3"/>
     </row>
-    <row r="75" spans="8:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="8:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V75" s="3"/>
     </row>
-    <row r="76" spans="8:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="8:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V76" s="3"/>
     </row>
-    <row r="77" spans="8:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="8:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V77" s="3"/>
     </row>
-    <row r="78" spans="8:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="8:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V78" s="3"/>
     </row>
-    <row r="79" spans="8:22" x14ac:dyDescent="0.3">
+    <row r="79" spans="8:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V79" s="3"/>
     </row>
-    <row r="80" spans="8:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="8:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V80" s="3"/>
     </row>
-    <row r="81" spans="22:22" x14ac:dyDescent="0.3">
+    <row r="81" spans="22:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V81" s="3"/>
     </row>
-    <row r="82" spans="22:22" x14ac:dyDescent="0.3">
+    <row r="82" spans="22:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V82" s="3"/>
     </row>
-    <row r="83" spans="22:22" x14ac:dyDescent="0.3">
+    <row r="83" spans="22:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V83" s="3"/>
     </row>
-    <row r="84" spans="22:22" x14ac:dyDescent="0.3">
+    <row r="84" spans="22:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V84" s="3"/>
     </row>
-    <row r="85" spans="22:22" x14ac:dyDescent="0.3">
+    <row r="85" spans="22:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V85" s="3"/>
     </row>
-    <row r="86" spans="22:22" x14ac:dyDescent="0.3">
+    <row r="86" spans="22:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V86" s="3"/>
     </row>
-    <row r="87" spans="22:22" x14ac:dyDescent="0.3">
+    <row r="87" spans="22:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V87" s="3"/>
     </row>
-    <row r="88" spans="22:22" x14ac:dyDescent="0.3">
+    <row r="88" spans="22:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V88" s="3"/>
     </row>
-    <row r="89" spans="22:22" x14ac:dyDescent="0.3">
+    <row r="89" spans="22:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V89" s="3"/>
     </row>
-    <row r="90" spans="22:22" x14ac:dyDescent="0.3">
+    <row r="90" spans="22:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V90" s="3"/>
     </row>
-    <row r="91" spans="22:22" x14ac:dyDescent="0.3">
+    <row r="91" spans="22:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V91" s="3"/>
     </row>
-    <row r="92" spans="22:22" x14ac:dyDescent="0.3">
+    <row r="92" spans="22:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V92" s="3"/>
     </row>
-    <row r="93" spans="22:22" x14ac:dyDescent="0.3">
+    <row r="93" spans="22:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V93" s="3"/>
     </row>
-    <row r="94" spans="22:22" x14ac:dyDescent="0.3">
+    <row r="94" spans="22:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V94" s="3"/>
     </row>
-    <row r="95" spans="22:22" x14ac:dyDescent="0.3">
+    <row r="95" spans="22:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V95" s="3"/>
     </row>
-    <row r="96" spans="22:22" x14ac:dyDescent="0.3">
+    <row r="96" spans="22:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V96" s="3"/>
     </row>
-    <row r="97" spans="22:22" x14ac:dyDescent="0.3">
+    <row r="97" spans="22:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V97" s="3"/>
     </row>
-    <row r="98" spans="22:22" x14ac:dyDescent="0.3">
+    <row r="98" spans="22:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V98" s="3"/>
     </row>
-    <row r="99" spans="22:22" x14ac:dyDescent="0.3">
+    <row r="99" spans="22:22" x14ac:dyDescent="0.55000000000000004">
       <c r="V99" s="3"/>
     </row>
   </sheetData>
